--- a/pokemon_LeagueTable/帮战座位表20250419(中文版本).xlsx
+++ b/pokemon_LeagueTable/帮战座位表20250419(中文版本).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="26783" windowHeight="9900" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="30720" windowHeight="15300" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="山海" sheetId="1" state="hidden" r:id="rId1"/>
@@ -376,7 +376,7 @@
     <t>新叶喵 花田约</t>
   </si>
   <si>
-    <t>淹没 奶约</t>
+    <t>晚轻 花约</t>
   </si>
   <si>
     <t>纯甜 奶约</t>
@@ -442,19 +442,19 @@
     <t>海文 清泉 花田</t>
   </si>
   <si>
+    <t>酱鹅 清泉</t>
+  </si>
+  <si>
+    <t>虚荣 清泉 输出绝</t>
+  </si>
+  <si>
+    <t>白雪丶 星火</t>
+  </si>
+  <si>
+    <t>丸梓 花田</t>
+  </si>
+  <si>
     <t>孤鲸 刷水 花田</t>
-  </si>
-  <si>
-    <t>虚荣 清泉 输出绝</t>
-  </si>
-  <si>
-    <t>白雪丶 星火</t>
-  </si>
-  <si>
-    <t>丸梓 花田</t>
-  </si>
-  <si>
-    <t>晚轻 花约</t>
   </si>
   <si>
     <t>焦糖橙 清泉 扩</t>
@@ -593,7 +593,7 @@
     <t>夏有枫</t>
   </si>
   <si>
-    <t>小海狮</t>
+    <t>赴小辰 点杀 自由人</t>
   </si>
   <si>
     <t>乱杀</t>
@@ -674,7 +674,7 @@
     <t>赖小羊 炮2</t>
   </si>
   <si>
-    <t>赴小辰 点杀 自由人</t>
+    <t>小海狮</t>
   </si>
   <si>
     <t>遥遥书</t>
@@ -756,9 +756,6 @@
     <t>美纳斯</t>
   </si>
   <si>
-    <t>酱鹅 清泉</t>
-  </si>
-  <si>
     <t>佩佩</t>
   </si>
   <si>
@@ -773,6 +770,9 @@
   </si>
   <si>
     <t>cw 迟烟烟（诙谐强势回归）</t>
+  </si>
+  <si>
+    <t>淹没 奶约</t>
   </si>
   <si>
     <t>cw 旅树</t>
@@ -2447,17 +2447,17 @@
     </font>
     <font>
       <b/>
-      <sz val="36"/>
-      <color theme="4"/>
-      <name val="微软雅黑"/>
+      <u/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Segoe UI Emoji"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Segoe UI Emoji"/>
+      <sz val="36"/>
+      <color theme="4"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -3580,6 +3580,9 @@
     <xf numFmtId="0" fontId="27" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3610,6 +3613,9 @@
     <xf numFmtId="0" fontId="27" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3631,9 +3637,6 @@
     <xf numFmtId="0" fontId="27" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3648,9 +3651,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5416,7 +5416,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="C4" s="9">
         <v>7</v>
@@ -7032,7 +7032,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="C5" s="9">
         <v>29</v>
@@ -9234,7 +9234,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="C4" s="9">
         <v>5</v>
@@ -12736,7 +12736,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -14626,8 +14626,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:K2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="31.95" customHeight="1"/>
@@ -14780,7 +14780,7 @@
       <c r="C5" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="92" t="s">
+      <c r="D5" s="93" t="s">
         <v>118</v>
       </c>
       <c r="E5" s="92" t="s">
@@ -14789,7 +14789,7 @@
       <c r="F5" s="92" t="s">
         <v>120</v>
       </c>
-      <c r="G5" s="93" t="s">
+      <c r="G5" s="94" t="s">
         <v>121</v>
       </c>
       <c r="H5" s="91" t="s">
@@ -14813,25 +14813,25 @@
       <c r="A6" s="90">
         <v>3</v>
       </c>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="95" t="s">
         <v>126</v>
       </c>
-      <c r="C6" s="95" t="s">
+      <c r="C6" s="96" t="s">
         <v>115</v>
       </c>
-      <c r="D6" s="96" t="s">
+      <c r="D6" s="97" t="s">
         <v>127</v>
       </c>
-      <c r="E6" s="94" t="s">
+      <c r="E6" s="95" t="s">
         <v>128</v>
       </c>
-      <c r="F6" s="97" t="s">
+      <c r="F6" s="98" t="s">
         <v>129</v>
       </c>
-      <c r="G6" s="98" t="s">
+      <c r="G6" s="99" t="s">
         <v>130</v>
       </c>
-      <c r="H6" s="97" t="s">
+      <c r="H6" s="98" t="s">
         <v>131</v>
       </c>
       <c r="I6" s="139" t="s">
@@ -14855,25 +14855,25 @@
       <c r="A7" s="90">
         <v>4</v>
       </c>
-      <c r="B7" s="99" t="s">
+      <c r="B7" s="100" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="99" t="s">
+      <c r="C7" s="100" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="95" t="s">
+      <c r="D7" s="96" t="s">
         <v>138</v>
       </c>
-      <c r="E7" s="99" t="s">
+      <c r="E7" s="100" t="s">
         <v>139</v>
       </c>
-      <c r="F7" s="99" t="s">
+      <c r="F7" s="100" t="s">
         <v>140</v>
       </c>
-      <c r="G7" s="100" t="s">
+      <c r="G7" s="101" t="s">
         <v>141</v>
       </c>
-      <c r="H7" s="101" t="s">
+      <c r="H7" s="102" t="s">
         <v>142</v>
       </c>
       <c r="I7" s="144" t="s">
@@ -14898,25 +14898,25 @@
       <c r="A8" s="90">
         <v>5</v>
       </c>
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="103" t="s">
         <v>147</v>
       </c>
-      <c r="C8" s="102" t="s">
+      <c r="C8" s="103" t="s">
         <v>148</v>
       </c>
-      <c r="D8" s="97" t="s">
+      <c r="D8" s="104" t="s">
         <v>149</v>
       </c>
-      <c r="E8" s="101" t="s">
+      <c r="E8" s="102" t="s">
         <v>150</v>
       </c>
-      <c r="F8" s="102" t="s">
+      <c r="F8" s="103" t="s">
         <v>151</v>
       </c>
-      <c r="G8" s="103" t="s">
+      <c r="G8" s="105" t="s">
         <v>152</v>
       </c>
-      <c r="H8" s="104" t="s">
+      <c r="H8" s="106" t="s">
         <v>153</v>
       </c>
       <c r="I8" s="148" t="s">
@@ -14943,28 +14943,28 @@
       <c r="A9" s="90">
         <v>6</v>
       </c>
-      <c r="B9" s="104" t="s">
+      <c r="B9" s="106" t="s">
         <v>160</v>
       </c>
-      <c r="C9" s="104" t="s">
+      <c r="C9" s="106" t="s">
         <v>161</v>
       </c>
-      <c r="D9" s="104" t="s">
+      <c r="D9" s="106" t="s">
         <v>162</v>
       </c>
-      <c r="E9" s="104" t="s">
+      <c r="E9" s="106" t="s">
         <v>163</v>
       </c>
-      <c r="F9" s="96" t="s">
+      <c r="F9" s="97" t="s">
         <v>164</v>
       </c>
-      <c r="G9" s="105" t="s">
+      <c r="G9" s="107" t="s">
         <v>165</v>
       </c>
-      <c r="H9" s="105" t="s">
+      <c r="H9" s="107" t="s">
         <v>166</v>
       </c>
-      <c r="I9" s="116" t="s">
+      <c r="I9" s="98" t="s">
         <v>167</v>
       </c>
       <c r="J9" s="153" t="s">
@@ -14981,17 +14981,17 @@
       <c r="P9" s="138"/>
     </row>
     <row r="10" s="53" customFormat="1" customHeight="1" spans="1:16">
-      <c r="A10" s="106" t="s">
+      <c r="A10" s="108" t="s">
         <v>171</v>
       </c>
-      <c r="B10" s="107"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
       <c r="J10" s="155"/>
       <c r="K10" s="156"/>
       <c r="L10" s="157"/>
@@ -15004,18 +15004,18 @@
       </c>
     </row>
     <row r="11" s="53" customFormat="1" customHeight="1" spans="1:16">
-      <c r="A11" s="106" t="s">
+      <c r="A11" s="108" t="s">
         <v>174</v>
       </c>
-      <c r="B11" s="107"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="107"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="109"/>
       <c r="K11" s="160"/>
       <c r="L11" s="161" t="s">
         <v>175</v>
@@ -15027,18 +15027,18 @@
       <c r="P11" s="163"/>
     </row>
     <row r="12" s="53" customFormat="1" customHeight="1" spans="1:16">
-      <c r="A12" s="106" t="s">
+      <c r="A12" s="108" t="s">
         <v>177</v>
       </c>
-      <c r="B12" s="107"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
       <c r="K12" s="160"/>
       <c r="L12" s="164"/>
       <c r="M12" s="165" t="s">
@@ -15055,18 +15055,18 @@
       </c>
     </row>
     <row r="13" s="53" customFormat="1" customHeight="1" spans="1:16">
-      <c r="A13" s="106" t="s">
+      <c r="A13" s="108" t="s">
         <v>180</v>
       </c>
-      <c r="B13" s="107"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="109"/>
       <c r="K13" s="160"/>
       <c r="L13" s="167" t="s">
         <v>181</v>
@@ -15080,67 +15080,67 @@
       </c>
     </row>
     <row r="14" s="75" customFormat="1" customHeight="1" spans="2:7">
-      <c r="B14" s="108" t="s">
+      <c r="B14" s="110" t="s">
         <v>183</v>
       </c>
-      <c r="C14" s="102" t="s">
+      <c r="C14" s="103" t="s">
         <v>184</v>
       </c>
-      <c r="D14" s="109"/>
-      <c r="E14" s="110" t="s">
+      <c r="D14" s="111"/>
+      <c r="F14" s="92" t="s">
         <v>185</v>
       </c>
-      <c r="F14" s="92" t="s">
+      <c r="G14" s="112" t="s">
         <v>186</v>
       </c>
-      <c r="G14" s="111" t="s">
+    </row>
+    <row r="15" s="75" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A15" s="113" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="15" s="75" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A15" s="112" t="s">
+      <c r="B15" s="114" t="s">
         <v>188</v>
       </c>
-      <c r="B15" s="113" t="s">
+      <c r="C15" s="115" t="s">
         <v>189</v>
       </c>
-      <c r="C15" s="114" t="s">
+      <c r="D15" s="115"/>
+      <c r="E15" s="91" t="s">
         <v>190</v>
       </c>
-      <c r="D15" s="114"/>
     </row>
     <row r="16" s="75" customFormat="1" customHeight="1"/>
     <row r="17" customHeight="1" spans="2:9">
-      <c r="B17" s="115"/>
+      <c r="B17" s="116"/>
       <c r="I17" s="169" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:11">
-      <c r="B18" s="115"/>
+      <c r="B18" s="116"/>
       <c r="I18" s="91" t="s">
         <v>192</v>
       </c>
       <c r="J18" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="K18" s="99" t="s">
+      <c r="K18" s="100" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:11">
-      <c r="B19" s="115"/>
-      <c r="C19" s="116" t="s">
+      <c r="B19" s="116"/>
+      <c r="C19" s="104" t="s">
         <v>194</v>
       </c>
-      <c r="D19" s="116"/>
-      <c r="E19" s="101" t="s">
+      <c r="D19" s="104"/>
+      <c r="E19" s="102" t="s">
         <v>195</v>
       </c>
       <c r="G19" s="91" t="s">
         <v>196</v>
       </c>
-      <c r="H19" s="111" t="s">
+      <c r="H19" s="112" t="s">
         <v>197</v>
       </c>
       <c r="I19" s="92" t="s">
@@ -15149,7 +15149,7 @@
       <c r="J19" s="91" t="s">
         <v>199</v>
       </c>
-      <c r="K19" s="101" t="s">
+      <c r="K19" s="102" t="s">
         <v>142</v>
       </c>
     </row>
@@ -15171,7 +15171,7 @@
       </c>
     </row>
     <row r="22" customHeight="1" spans="8:8">
-      <c r="H22" s="97" t="s">
+      <c r="H22" s="98" t="s">
         <v>169</v>
       </c>
     </row>
@@ -15875,7 +15875,7 @@
         <v>6</v>
       </c>
       <c r="O8" s="39" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="P8" s="48"/>
       <c r="Q8" s="30"/>
@@ -17172,7 +17172,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="C3" s="9">
         <v>15</v>
@@ -19041,7 +19041,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="C4" s="9">
         <v>16</v>
@@ -20821,7 +20821,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="C3" s="9">
         <v>11</v>
@@ -24510,7 +24510,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="C46" s="9">
         <v>0</v>
@@ -24735,7 +24735,7 @@
     </row>
     <row r="57" customHeight="1" spans="1:8">
       <c r="A57" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>

--- a/pokemon_LeagueTable/帮战座位表20250419(中文版本).xlsx
+++ b/pokemon_LeagueTable/帮战座位表20250419(中文版本).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="15300" firstSheet="1" activeTab="1"/>
+    <workbookView windowHeight="17775" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="山海" sheetId="1" state="hidden" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="604">
   <si>
     <t>山海帮战座位表</t>
   </si>
@@ -376,10 +376,10 @@
     <t>新叶喵 花田约</t>
   </si>
   <si>
-    <t>晚轻 花约</t>
-  </si>
-  <si>
     <t>纯甜 奶约</t>
+  </si>
+  <si>
+    <t>南山瑶 花田约</t>
   </si>
   <si>
     <t>点心 花田约</t>
@@ -442,7 +442,7 @@
     <t>海文 清泉 花田</t>
   </si>
   <si>
-    <t>酱鹅 清泉</t>
+    <t>瓦学弟 清泉</t>
   </si>
   <si>
     <t>虚荣 清泉 输出绝</t>
@@ -457,7 +457,7 @@
     <t>孤鲸 刷水 花田</t>
   </si>
   <si>
-    <t>焦糖橙 清泉 扩</t>
+    <t>浮海</t>
   </si>
   <si>
     <t>泠别 奶绝</t>
@@ -496,7 +496,7 @@
     </r>
   </si>
   <si>
-    <t>跳跃验尸官 与醉 破</t>
+    <t>酤墨 破</t>
   </si>
   <si>
     <t>🍪饼饼大王</t>
@@ -505,10 +505,10 @@
     <t>袅滋十米远</t>
   </si>
   <si>
+    <t>槿屿 纯推塔</t>
+  </si>
+  <si>
     <t>猫丞丞 纯推塔</t>
-  </si>
-  <si>
-    <t>人欺 太剑 推塔</t>
   </si>
   <si>
     <t>无敌泥头车</t>
@@ -554,18 +554,18 @@
     </r>
   </si>
   <si>
+    <t>cw 椿上江川</t>
+  </si>
+  <si>
+    <t>cw 冷酷无情晓美焰</t>
+  </si>
+  <si>
+    <t>神秘玩家</t>
+  </si>
+  <si>
     <t>读懂鱿鱼</t>
   </si>
   <si>
-    <t>cw 绯村剑心</t>
-  </si>
-  <si>
-    <t>浮海</t>
-  </si>
-  <si>
-    <t>cw 椿上江川</t>
-  </si>
-  <si>
     <t>社恐碎梦</t>
   </si>
   <si>
@@ -575,12 +575,12 @@
     <t>哈克龙</t>
   </si>
   <si>
-    <t>一昂 清泉</t>
-  </si>
-  <si>
     <t>救救桃栀 太剑</t>
   </si>
   <si>
+    <t>人欺 太剑 推塔</t>
+  </si>
+  <si>
     <t>青古</t>
   </si>
   <si>
@@ -611,10 +611,10 @@
     <t>拿铁 太剑</t>
   </si>
   <si>
-    <t>莫清雨</t>
-  </si>
-  <si>
     <t>桃栀酒酒</t>
+  </si>
+  <si>
+    <t>墨风 太极</t>
   </si>
   <si>
     <r>
@@ -662,7 +662,7 @@
     <t>不满</t>
   </si>
   <si>
-    <t>试训90 90绝</t>
+    <t>青酒</t>
   </si>
   <si>
     <t>臣服 腾龙 牺牲</t>
@@ -671,16 +671,16 @@
     <t>银色飞行船 炮1</t>
   </si>
   <si>
-    <t>赖小羊 炮2</t>
+    <t>赖小羊 飞剑/炮</t>
   </si>
   <si>
     <t>小海狮</t>
   </si>
   <si>
+    <t>迟烟烟</t>
+  </si>
+  <si>
     <t>遥遥书</t>
-  </si>
-  <si>
-    <t>墨风 太极</t>
   </si>
   <si>
     <t>救救桃栀</t>
@@ -762,6 +762,9 @@
     <t>南山瑶 奶绝 开麦</t>
   </si>
   <si>
+    <t>焦糖橙 清泉 扩</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 
                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                    </t>
   </si>
@@ -775,9 +778,18 @@
     <t>淹没 奶约</t>
   </si>
   <si>
+    <t>晚轻 花约</t>
+  </si>
+  <si>
+    <t>一昂 清泉</t>
+  </si>
+  <si>
     <t>cw 旅树</t>
   </si>
   <si>
+    <t>莫清雨</t>
+  </si>
+  <si>
     <t>宴祈</t>
   </si>
   <si>
@@ -797,9 +809,6 @@
   </si>
   <si>
     <t>孤鲸 花田</t>
-  </si>
-  <si>
-    <t>沙耶香 花田</t>
   </si>
   <si>
     <t>赫赫 纯干人</t>
@@ -2202,6 +2211,13 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <u/>
       <sz val="16"/>
       <color theme="1"/>
@@ -2247,13 +2263,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF7030A0"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -2781,7 +2790,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -2879,67 +2888,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -2950,51 +2898,6 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -3032,6 +2935,37 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -3176,7 +3110,7 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3188,34 +3122,34 @@
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="24" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="25" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="25" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="25" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="25" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="26" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="26" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3300,7 +3234,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3565,10 +3499,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3577,6 +3508,9 @@
     <xf numFmtId="0" fontId="27" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3586,7 +3520,7 @@
     <xf numFmtId="0" fontId="27" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3598,13 +3532,13 @@
     <xf numFmtId="0" fontId="27" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3625,37 +3559,46 @@
     <xf numFmtId="0" fontId="27" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3682,18 +3625,9 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3706,27 +3640,12 @@
     <xf numFmtId="0" fontId="16" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3736,22 +3655,13 @@
     <xf numFmtId="0" fontId="27" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3760,16 +3670,13 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3781,7 +3688,7 @@
     <xf numFmtId="0" fontId="16" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3808,7 +3715,7 @@
     <xf numFmtId="0" fontId="16" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3868,13 +3775,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3892,37 +3799,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4463,774 +4370,774 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8888888888889" defaultRowHeight="27" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.8916666666667" defaultRowHeight="27" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.33333333333333" style="170" customWidth="1"/>
-    <col min="2" max="16382" width="12.8888888888889" style="171" customWidth="1"/>
-    <col min="16383" max="16384" width="12.8888888888889" style="171"/>
+    <col min="1" max="1" width="8.33333333333333" style="161" customWidth="1"/>
+    <col min="2" max="16382" width="12.8916666666667" style="162" customWidth="1"/>
+    <col min="16383" max="16384" width="12.8916666666667" style="162"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
-      <c r="A1" s="172" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="173"/>
-      <c r="J1" s="173"/>
-      <c r="K1" s="173"/>
-      <c r="L1" s="193"/>
-    </row>
-    <row r="2" s="170" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A2" s="174"/>
-      <c r="B2" s="174" t="s">
+      <c r="A1" s="163" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="164"/>
+      <c r="I1" s="164"/>
+      <c r="J1" s="164"/>
+      <c r="K1" s="164"/>
+      <c r="L1" s="184"/>
+    </row>
+    <row r="2" s="161" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A2" s="165"/>
+      <c r="B2" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="174" t="s">
+      <c r="C2" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="174" t="s">
+      <c r="D2" s="165" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="174" t="s">
+      <c r="E2" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174" t="s">
+      <c r="F2" s="165"/>
+      <c r="G2" s="165" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="174"/>
-      <c r="I2" s="174"/>
-      <c r="J2" s="174"/>
-      <c r="K2" s="174"/>
-      <c r="L2" s="174"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="165"/>
     </row>
     <row r="3" customHeight="1" spans="1:12">
-      <c r="A3" s="174">
+      <c r="A3" s="165">
         <v>1</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="176" t="s">
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="175"/>
-      <c r="G3" s="176" t="s">
+      <c r="F3" s="166"/>
+      <c r="G3" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="176" t="s">
+      <c r="H3" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="176" t="s">
+      <c r="I3" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="176" t="s">
+      <c r="J3" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="194" t="s">
+      <c r="K3" s="185" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="194"/>
+      <c r="L3" s="185"/>
     </row>
     <row r="4" customHeight="1" spans="1:12">
-      <c r="A4" s="174">
+      <c r="A4" s="165">
         <v>2</v>
       </c>
-      <c r="B4" s="175" t="s">
+      <c r="B4" s="166" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="175" t="s">
+      <c r="C4" s="166" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="175"/>
-      <c r="E4" s="177" t="s">
+      <c r="D4" s="166"/>
+      <c r="E4" s="168" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="177" t="s">
+      <c r="F4" s="168" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="175" t="s">
+      <c r="G4" s="166" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="175" t="s">
+      <c r="H4" s="166" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="175" t="s">
+      <c r="I4" s="166" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="175" t="s">
+      <c r="J4" s="166" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="180" t="s">
+      <c r="K4" s="171" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="180"/>
+      <c r="L4" s="171"/>
     </row>
     <row r="5" customHeight="1" spans="1:12">
-      <c r="A5" s="174">
+      <c r="A5" s="165">
         <v>3</v>
       </c>
-      <c r="B5" s="175"/>
-      <c r="C5" s="175"/>
-      <c r="D5" s="175"/>
-      <c r="E5" s="177" t="s">
+      <c r="B5" s="166"/>
+      <c r="C5" s="166"/>
+      <c r="D5" s="166"/>
+      <c r="E5" s="168" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="177" t="s">
+      <c r="F5" s="168" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="178" t="s">
+      <c r="G5" s="169" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="175" t="s">
+      <c r="H5" s="166" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="175"/>
-      <c r="J5" s="175" t="s">
+      <c r="I5" s="166"/>
+      <c r="J5" s="166" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="195"/>
-      <c r="L5" s="180" t="s">
+      <c r="K5" s="186"/>
+      <c r="L5" s="171" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:12">
-      <c r="A6" s="174">
+      <c r="A6" s="165">
         <v>4</v>
       </c>
-      <c r="B6" s="175"/>
-      <c r="C6" s="175"/>
-      <c r="D6" s="175"/>
-      <c r="E6" s="179" t="s">
+      <c r="B6" s="166"/>
+      <c r="C6" s="166"/>
+      <c r="D6" s="166"/>
+      <c r="E6" s="170" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="171" t="s">
+      <c r="F6" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="180"/>
-      <c r="H6" s="175"/>
-      <c r="I6" s="175"/>
-      <c r="J6" s="175" t="s">
+      <c r="G6" s="171"/>
+      <c r="H6" s="166"/>
+      <c r="I6" s="166"/>
+      <c r="J6" s="166" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="180"/>
-      <c r="L6" s="180"/>
+      <c r="K6" s="171"/>
+      <c r="L6" s="171"/>
     </row>
     <row r="7" customHeight="1" spans="1:12">
-      <c r="A7" s="174">
+      <c r="A7" s="165">
         <v>5</v>
       </c>
-      <c r="B7" s="175"/>
-      <c r="C7" s="175"/>
-      <c r="D7" s="175"/>
-      <c r="E7" s="175" t="s">
+      <c r="B7" s="166"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="180" t="s">
+      <c r="F7" s="171" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="179"/>
-      <c r="H7" s="175"/>
-      <c r="I7" s="175"/>
-      <c r="J7" s="175"/>
-      <c r="K7" s="180"/>
-      <c r="L7" s="180"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="166"/>
+      <c r="I7" s="166"/>
+      <c r="J7" s="166"/>
+      <c r="K7" s="171"/>
+      <c r="L7" s="171"/>
     </row>
     <row r="8" customHeight="1" spans="1:12">
-      <c r="A8" s="174">
+      <c r="A8" s="165">
         <v>6</v>
       </c>
-      <c r="B8" s="175"/>
-      <c r="C8" s="175"/>
-      <c r="D8" s="175"/>
-      <c r="E8" s="175"/>
-      <c r="F8" s="181" t="s">
+      <c r="B8" s="166"/>
+      <c r="C8" s="166"/>
+      <c r="D8" s="166"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="172" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="175"/>
-      <c r="H8" s="175"/>
-      <c r="I8" s="175"/>
-      <c r="J8" s="175"/>
-      <c r="K8" s="180"/>
-      <c r="L8" s="180"/>
+      <c r="G8" s="166"/>
+      <c r="H8" s="166"/>
+      <c r="I8" s="166"/>
+      <c r="J8" s="166"/>
+      <c r="K8" s="171"/>
+      <c r="L8" s="171"/>
     </row>
     <row r="9" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A9" s="182">
+      <c r="A9" s="173">
         <v>7</v>
       </c>
-      <c r="B9" s="183"/>
-      <c r="C9" s="184"/>
-      <c r="D9" s="184"/>
-      <c r="E9" s="184"/>
-      <c r="F9" s="185"/>
-      <c r="G9" s="186" t="s">
+      <c r="B9" s="174"/>
+      <c r="C9" s="175"/>
+      <c r="D9" s="175"/>
+      <c r="E9" s="175"/>
+      <c r="F9" s="176"/>
+      <c r="G9" s="177" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="187"/>
-      <c r="I9" s="187"/>
-      <c r="J9" s="187"/>
-      <c r="K9" s="187"/>
-      <c r="L9" s="196"/>
+      <c r="H9" s="178"/>
+      <c r="I9" s="178"/>
+      <c r="J9" s="178"/>
+      <c r="K9" s="178"/>
+      <c r="L9" s="187"/>
     </row>
     <row r="10" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A10" s="182">
+      <c r="A10" s="173">
         <v>8</v>
       </c>
-      <c r="B10" s="188"/>
-      <c r="C10" s="189"/>
-      <c r="D10" s="189"/>
-      <c r="E10" s="189"/>
-      <c r="F10" s="189"/>
-      <c r="G10" s="190" t="s">
+      <c r="B10" s="179"/>
+      <c r="C10" s="180"/>
+      <c r="D10" s="180"/>
+      <c r="E10" s="180"/>
+      <c r="F10" s="180"/>
+      <c r="G10" s="181" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="191"/>
-      <c r="I10" s="191"/>
-      <c r="J10" s="191"/>
-      <c r="K10" s="191"/>
-      <c r="L10" s="197"/>
+      <c r="H10" s="182"/>
+      <c r="I10" s="182"/>
+      <c r="J10" s="182"/>
+      <c r="K10" s="182"/>
+      <c r="L10" s="188"/>
     </row>
     <row r="11" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A11" s="182">
+      <c r="A11" s="173">
         <v>9</v>
       </c>
-      <c r="B11" s="188"/>
-      <c r="C11" s="189"/>
-      <c r="D11" s="189"/>
-      <c r="E11" s="189"/>
-      <c r="F11" s="189"/>
-      <c r="G11" s="186" t="s">
+      <c r="B11" s="179"/>
+      <c r="C11" s="180"/>
+      <c r="D11" s="180"/>
+      <c r="E11" s="180"/>
+      <c r="F11" s="180"/>
+      <c r="G11" s="177" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="187"/>
-      <c r="I11" s="187"/>
-      <c r="J11" s="187"/>
-      <c r="K11" s="187"/>
-      <c r="L11" s="196"/>
+      <c r="H11" s="178"/>
+      <c r="I11" s="178"/>
+      <c r="J11" s="178"/>
+      <c r="K11" s="178"/>
+      <c r="L11" s="187"/>
     </row>
     <row r="12" customFormat="1" customHeight="1"/>
     <row r="13" customHeight="1" spans="2:14">
-      <c r="B13" s="192" t="s">
+      <c r="B13" s="183" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="192" t="s">
+      <c r="C13" s="183" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="192" t="s">
+      <c r="D13" s="183" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="192" t="s">
+      <c r="E13" s="183" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="192" t="s">
+      <c r="F13" s="183" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="192" t="s">
+      <c r="G13" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="192" t="s">
+      <c r="H13" s="183" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="198"/>
-      <c r="J13" s="199"/>
-      <c r="K13" s="199"/>
-      <c r="L13" s="199"/>
-      <c r="M13" s="199"/>
-      <c r="N13" s="200"/>
+      <c r="I13" s="189"/>
+      <c r="J13" s="190"/>
+      <c r="K13" s="190"/>
+      <c r="L13" s="190"/>
+      <c r="M13" s="190"/>
+      <c r="N13" s="191"/>
     </row>
     <row r="14" customHeight="1" spans="1:14">
-      <c r="A14" s="170">
+      <c r="A14" s="161">
         <v>1</v>
       </c>
-      <c r="B14" s="171" t="s">
+      <c r="B14" s="162" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="171" t="s">
+      <c r="C14" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="171" t="s">
+      <c r="D14" s="162" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="171" t="s">
+      <c r="E14" s="162" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="171" t="s">
+      <c r="F14" s="162" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="171" t="s">
+      <c r="G14" s="162" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="171" t="s">
+      <c r="H14" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="I14" s="201"/>
+      <c r="I14" s="192"/>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
-      <c r="N14" s="202"/>
+      <c r="N14" s="193"/>
     </row>
     <row r="15" customHeight="1" spans="1:14">
-      <c r="A15" s="170">
+      <c r="A15" s="161">
         <v>2</v>
       </c>
-      <c r="B15" s="171" t="s">
+      <c r="B15" s="162" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="171" t="s">
+      <c r="C15" s="162" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="171" t="s">
+      <c r="D15" s="162" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="171" t="s">
+      <c r="E15" s="162" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="181" t="s">
+      <c r="F15" s="172" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="171" t="s">
+      <c r="G15" s="162" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="181" t="s">
+      <c r="H15" s="172" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="201"/>
+      <c r="I15" s="192"/>
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15"/>
-      <c r="N15" s="202"/>
+      <c r="N15" s="193"/>
     </row>
     <row r="16" customHeight="1" spans="1:14">
-      <c r="A16" s="170">
+      <c r="A16" s="161">
         <v>3</v>
       </c>
-      <c r="B16" s="171" t="s">
+      <c r="B16" s="162" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="171" t="s">
+      <c r="C16" s="162" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="171" t="s">
+      <c r="D16" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="171" t="s">
+      <c r="E16" s="162" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="181" t="s">
+      <c r="F16" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="171" t="s">
+      <c r="G16" s="162" t="s">
         <v>53</v>
       </c>
-      <c r="H16" s="171" t="s">
+      <c r="H16" s="162" t="s">
         <v>54</v>
       </c>
-      <c r="I16" s="203" t="s">
+      <c r="I16" s="194" t="s">
         <v>55</v>
       </c>
-      <c r="L16" s="181" t="s">
+      <c r="L16" s="172" t="s">
         <v>32</v>
       </c>
-      <c r="M16" s="170" t="s">
+      <c r="M16" s="161" t="s">
         <v>56</v>
       </c>
-      <c r="N16" s="204"/>
+      <c r="N16" s="195"/>
     </row>
     <row r="17" customHeight="1" spans="1:14">
-      <c r="A17" s="170">
+      <c r="A17" s="161">
         <v>4</v>
       </c>
-      <c r="B17" s="171" t="s">
+      <c r="B17" s="162" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="171" t="s">
+      <c r="C17" s="162" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="181" t="s">
+      <c r="D17" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="171" t="s">
+      <c r="E17" s="162" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="181" t="s">
+      <c r="F17" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="171" t="s">
+      <c r="G17" s="162" t="s">
         <v>59</v>
       </c>
-      <c r="H17" s="181" t="s">
+      <c r="H17" s="172" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="203" t="s">
+      <c r="I17" s="194" t="s">
         <v>59</v>
       </c>
-      <c r="J17" s="171" t="s">
+      <c r="J17" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="K17" s="171" t="s">
+      <c r="K17" s="162" t="s">
         <v>15</v>
       </c>
-      <c r="L17" s="171" t="s">
+      <c r="L17" s="162" t="s">
         <v>60</v>
       </c>
-      <c r="M17" s="171" t="s">
+      <c r="M17" s="162" t="s">
         <v>61</v>
       </c>
-      <c r="N17" s="204" t="s">
+      <c r="N17" s="195" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:14">
-      <c r="A18" s="170">
+      <c r="A18" s="161">
         <v>5</v>
       </c>
-      <c r="B18" s="171" t="s">
+      <c r="B18" s="162" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="171" t="s">
+      <c r="C18" s="162" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="171" t="s">
+      <c r="D18" s="162" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="181" t="s">
+      <c r="E18" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="171" t="s">
+      <c r="F18" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="171" t="s">
+      <c r="G18" s="162" t="s">
         <v>65</v>
       </c>
-      <c r="H18" s="171" t="s">
+      <c r="H18" s="162" t="s">
         <v>66</v>
       </c>
-      <c r="I18" s="203" t="s">
+      <c r="I18" s="194" t="s">
         <v>51</v>
       </c>
-      <c r="J18" s="171" t="s">
+      <c r="J18" s="162" t="s">
         <v>48</v>
       </c>
-      <c r="K18" s="171" t="s">
+      <c r="K18" s="162" t="s">
         <v>67</v>
       </c>
-      <c r="L18" s="171" t="s">
+      <c r="L18" s="162" t="s">
         <v>50</v>
       </c>
-      <c r="M18" s="171" t="s">
+      <c r="M18" s="162" t="s">
         <v>68</v>
       </c>
-      <c r="N18" s="204" t="s">
+      <c r="N18" s="195" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:14">
-      <c r="A19" s="170">
+      <c r="A19" s="161">
         <v>6</v>
       </c>
-      <c r="B19" s="171" t="s">
+      <c r="B19" s="162" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="171" t="s">
+      <c r="C19" s="162" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="181" t="s">
+      <c r="D19" s="172" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="171" t="s">
+      <c r="E19" s="162" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="171" t="s">
+      <c r="F19" s="162" t="s">
         <v>71</v>
       </c>
-      <c r="G19" s="181" t="s">
+      <c r="G19" s="172" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="171" t="s">
+      <c r="H19" s="162" t="s">
         <v>72</v>
       </c>
-      <c r="I19" s="203" t="s">
+      <c r="I19" s="194" t="s">
         <v>31</v>
       </c>
-      <c r="J19" s="171" t="s">
+      <c r="J19" s="162" t="s">
         <v>54</v>
       </c>
-      <c r="K19" s="171" t="s">
+      <c r="K19" s="162" t="s">
         <v>72</v>
       </c>
-      <c r="L19" s="171" t="s">
+      <c r="L19" s="162" t="s">
         <v>73</v>
       </c>
-      <c r="M19" s="171" t="s">
+      <c r="M19" s="162" t="s">
         <v>65</v>
       </c>
-      <c r="N19" s="204" t="s">
+      <c r="N19" s="195" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:14">
-      <c r="A20" s="170">
+      <c r="A20" s="161">
         <v>7</v>
       </c>
-      <c r="B20" s="171" t="s">
+      <c r="B20" s="162" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="171" t="s">
+      <c r="D20" s="162" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="171" t="s">
+      <c r="E20" s="162" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="181" t="s">
+      <c r="F20" s="172" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="181" t="s">
+      <c r="G20" s="172" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="171" t="s">
+      <c r="H20" s="162" t="s">
         <v>76</v>
       </c>
-      <c r="I20" s="203" t="s">
+      <c r="I20" s="194" t="s">
         <v>43</v>
       </c>
-      <c r="J20" s="171" t="s">
+      <c r="J20" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="K20" s="171" t="s">
+      <c r="K20" s="162" t="s">
         <v>77</v>
       </c>
-      <c r="L20" s="171" t="s">
+      <c r="L20" s="162" t="s">
         <v>76</v>
       </c>
-      <c r="M20" s="171" t="s">
+      <c r="M20" s="162" t="s">
         <v>78</v>
       </c>
-      <c r="N20" s="204"/>
+      <c r="N20" s="195"/>
     </row>
     <row r="21" customHeight="1" spans="1:14">
-      <c r="A21" s="170">
+      <c r="A21" s="161">
         <v>8</v>
       </c>
-      <c r="B21" s="171" t="s">
+      <c r="B21" s="162" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="181" t="s">
+      <c r="D21" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="181" t="s">
+      <c r="E21" s="172" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="171" t="s">
+      <c r="F21" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="181" t="s">
+      <c r="G21" s="172" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="171" t="s">
+      <c r="H21" s="162" t="s">
         <v>78</v>
       </c>
-      <c r="I21" s="203" t="s">
+      <c r="I21" s="194" t="s">
         <v>80</v>
       </c>
-      <c r="J21" s="171" t="s">
+      <c r="J21" s="162" t="s">
         <v>81</v>
       </c>
-      <c r="K21" s="171" t="s">
+      <c r="K21" s="162" t="s">
         <v>75</v>
       </c>
-      <c r="L21" s="171" t="s">
+      <c r="L21" s="162" t="s">
         <v>74</v>
       </c>
-      <c r="M21" s="171" t="s">
+      <c r="M21" s="162" t="s">
         <v>82</v>
       </c>
-      <c r="N21" s="204"/>
+      <c r="N21" s="195"/>
     </row>
     <row r="22" customHeight="1" spans="1:14">
-      <c r="A22" s="170">
+      <c r="A22" s="161">
         <v>9</v>
       </c>
-      <c r="D22" s="181" t="s">
+      <c r="D22" s="172" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="171" t="s">
+      <c r="E22" s="162" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="171" t="s">
+      <c r="F22" s="162" t="s">
         <v>84</v>
       </c>
-      <c r="G22" s="171" t="s">
+      <c r="G22" s="162" t="s">
         <v>85</v>
       </c>
-      <c r="H22" s="171" t="s">
+      <c r="H22" s="162" t="s">
         <v>73</v>
       </c>
-      <c r="I22" s="203" t="s">
+      <c r="I22" s="194" t="s">
         <v>47</v>
       </c>
-      <c r="J22" s="171" t="s">
+      <c r="J22" s="162" t="s">
         <v>86</v>
       </c>
-      <c r="K22" s="171" t="s">
+      <c r="K22" s="162" t="s">
         <v>87</v>
       </c>
-      <c r="L22" s="171" t="s">
+      <c r="L22" s="162" t="s">
         <v>63</v>
       </c>
-      <c r="M22" s="171" t="s">
+      <c r="M22" s="162" t="s">
         <v>84</v>
       </c>
-      <c r="N22" s="204"/>
+      <c r="N22" s="195"/>
     </row>
     <row r="23" customHeight="1" spans="1:14">
-      <c r="A23" s="170">
+      <c r="A23" s="161">
         <v>10</v>
       </c>
-      <c r="D23" s="171" t="s">
+      <c r="D23" s="162" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="171" t="s">
+      <c r="E23" s="162" t="s">
         <v>89</v>
       </c>
-      <c r="F23" s="171" t="s">
+      <c r="F23" s="162" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="171" t="s">
+      <c r="G23" s="162" t="s">
         <v>77</v>
       </c>
-      <c r="I23" s="203" t="s">
+      <c r="I23" s="194" t="s">
         <v>52</v>
       </c>
-      <c r="J23" s="171" t="s">
+      <c r="J23" s="162" t="s">
         <v>57</v>
       </c>
-      <c r="K23" s="171" t="s">
+      <c r="K23" s="162" t="s">
         <v>88</v>
       </c>
-      <c r="L23" s="171" t="s">
+      <c r="L23" s="162" t="s">
         <v>53</v>
       </c>
-      <c r="M23" s="171" t="s">
+      <c r="M23" s="162" t="s">
         <v>83</v>
       </c>
-      <c r="N23" s="204"/>
+      <c r="N23" s="195"/>
     </row>
     <row r="24" customHeight="1" spans="1:14">
-      <c r="A24" s="170">
+      <c r="A24" s="161">
         <v>11</v>
       </c>
-      <c r="D24" s="181" t="s">
+      <c r="D24" s="172" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="171" t="s">
+      <c r="G24" s="162" t="s">
         <v>90</v>
       </c>
-      <c r="I24" s="203" t="s">
+      <c r="I24" s="194" t="s">
         <v>90</v>
       </c>
-      <c r="J24" s="171" t="s">
+      <c r="J24" s="162" t="s">
         <v>66</v>
       </c>
-      <c r="K24" s="171" t="s">
+      <c r="K24" s="162" t="s">
         <v>85</v>
       </c>
-      <c r="L24" s="171" t="s">
+      <c r="L24" s="162" t="s">
         <v>45</v>
       </c>
-      <c r="N24" s="204"/>
+      <c r="N24" s="195"/>
     </row>
     <row r="25" customHeight="1" spans="1:14">
-      <c r="A25" s="170">
+      <c r="A25" s="161">
         <v>12</v>
       </c>
-      <c r="D25" s="181"/>
-      <c r="G25" s="181" t="s">
+      <c r="D25" s="172"/>
+      <c r="G25" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="205" t="s">
+      <c r="I25" s="196" t="s">
         <v>70</v>
       </c>
-      <c r="J25" s="206" t="s">
+      <c r="J25" s="197" t="s">
         <v>71</v>
       </c>
-      <c r="K25" s="206" t="s">
+      <c r="K25" s="197" t="s">
         <v>89</v>
       </c>
-      <c r="L25" s="206" t="s">
+      <c r="L25" s="197" t="s">
         <v>79</v>
       </c>
-      <c r="M25" s="206"/>
-      <c r="N25" s="207"/>
+      <c r="M25" s="197"/>
+      <c r="N25" s="198"/>
     </row>
     <row r="26" customHeight="1" spans="1:7">
-      <c r="A26" s="170">
+      <c r="A26" s="161">
         <v>13</v>
       </c>
-      <c r="G26" s="171" t="s">
+      <c r="G26" s="162" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:7">
-      <c r="A27" s="170">
+      <c r="A27" s="161">
         <v>14</v>
       </c>
-      <c r="G27" s="171" t="s">
+      <c r="G27" s="162" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:7">
-      <c r="A28" s="170">
+      <c r="A28" s="161">
         <v>15</v>
       </c>
-      <c r="G28" s="171" t="s">
+      <c r="G28" s="162" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:7">
-      <c r="A29" s="170">
+      <c r="A29" s="161">
         <v>16</v>
       </c>
-      <c r="G29" s="171" t="s">
+      <c r="G29" s="162" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:7">
-      <c r="A30" s="170">
+      <c r="A30" s="161">
         <v>17</v>
       </c>
-      <c r="G30" s="171" t="s">
+      <c r="G30" s="162" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:7">
-      <c r="A31" s="170">
+      <c r="A31" s="161">
         <v>18</v>
       </c>
-      <c r="G31" s="171" t="s">
+      <c r="G31" s="162" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:7">
-      <c r="A32" s="170">
+      <c r="A32" s="161">
         <v>19</v>
       </c>
-      <c r="G32" s="171" t="s">
+      <c r="G32" s="162" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:7">
-      <c r="A33" s="170">
+      <c r="A33" s="161">
         <v>20</v>
       </c>
-      <c r="G33" s="171" t="s">
+      <c r="G33" s="162" t="s">
         <v>81</v>
       </c>
     </row>
@@ -5264,23 +5171,23 @@
     <col min="2" max="2" width="15" style="3" customWidth="1"/>
     <col min="3" max="3" width="9" style="3"/>
     <col min="4" max="4" width="6.33333333333333" style="3" customWidth="1"/>
-    <col min="5" max="6" width="21.8888888888889" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.4444444444444" style="3" customWidth="1"/>
+    <col min="5" max="6" width="21.8916666666667" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.4416666666667" style="3" customWidth="1"/>
     <col min="8" max="9" width="9" style="3"/>
     <col min="10" max="10" width="6.33333333333333" style="3" customWidth="1"/>
     <col min="11" max="11" width="15" style="3" customWidth="1"/>
     <col min="12" max="12" width="9" style="3"/>
     <col min="13" max="13" width="6.33333333333333" style="3" customWidth="1"/>
-    <col min="14" max="15" width="21.8888888888889" style="3" customWidth="1"/>
-    <col min="16" max="16" width="16.4444444444444" style="3" customWidth="1"/>
-    <col min="17" max="17" width="9.22222222222222" style="3" customWidth="1"/>
+    <col min="14" max="15" width="21.8916666666667" style="3" customWidth="1"/>
+    <col min="16" max="16" width="16.4416666666667" style="3" customWidth="1"/>
+    <col min="17" max="17" width="9.225" style="3" customWidth="1"/>
     <col min="18" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="34.95" customHeight="1" spans="1:21">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -5290,7 +5197,7 @@
       <c r="H1" s="7"/>
       <c r="J1" s="4"/>
       <c r="K1" s="12" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="L1" s="13"/>
       <c r="M1" s="13"/>
@@ -5305,56 +5212,56 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="21" customHeight="1" spans="1:21">
       <c r="A2" s="8" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>332</v>
-      </c>
       <c r="O2" s="8" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="R2" s="8"/>
       <c r="S2" s="8" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="T2" s="8"/>
       <c r="U2" s="8"/>
@@ -5364,7 +5271,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C3" s="9">
         <v>7</v>
@@ -5384,7 +5291,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="L3" s="9">
         <v>0</v>
@@ -5436,7 +5343,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="L4" s="9">
         <v>0</v>
@@ -5468,7 +5375,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C5" s="9">
         <v>2</v>
@@ -5488,7 +5395,7 @@
         <v>3</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="L5" s="9">
         <v>1</v>
@@ -5540,7 +5447,7 @@
         <v>4</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="L6" s="9">
         <v>0</v>
@@ -5592,7 +5499,7 @@
         <v>5</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="L7" s="9">
         <v>0</v>
@@ -5624,7 +5531,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C8" s="9">
         <v>3</v>
@@ -5644,7 +5551,7 @@
         <v>6</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="L8" s="9">
         <v>0</v>
@@ -5696,7 +5603,7 @@
         <v>7</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="L9" s="9">
         <v>0</v>
@@ -5714,7 +5621,7 @@
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
       <c r="S9" s="9" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="T9" s="9">
         <v>4</v>
@@ -5728,7 +5635,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C10" s="9">
         <v>2</v>
@@ -5748,7 +5655,7 @@
         <v>8</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="L10" s="9">
         <v>0</v>
@@ -5774,7 +5681,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C11" s="9">
         <v>1</v>
@@ -5794,7 +5701,7 @@
         <v>9</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="L11" s="9">
         <v>1</v>
@@ -5820,7 +5727,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C12" s="9">
         <v>0</v>
@@ -5840,7 +5747,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="L12" s="9">
         <v>0</v>
@@ -5886,7 +5793,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="L13" s="9">
         <v>0</v>
@@ -5914,7 +5821,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C14" s="9">
         <v>1</v>
@@ -5934,7 +5841,7 @@
         <v>12</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="L14" s="9">
         <v>0</v>
@@ -5960,7 +5867,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C15" s="9">
         <v>1</v>
@@ -5980,7 +5887,7 @@
         <v>13</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="L15" s="9">
         <v>0</v>
@@ -6028,7 +5935,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="L16" s="9">
         <v>0</v>
@@ -6054,7 +5961,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C17" s="9">
         <v>1</v>
@@ -6074,7 +5981,7 @@
         <v>15</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="L17" s="9">
         <v>0</v>
@@ -6100,7 +6007,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C18" s="9">
         <v>0</v>
@@ -6120,7 +6027,7 @@
         <v>16</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="L18" s="9">
         <v>0</v>
@@ -6170,7 +6077,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C20" s="9">
         <v>0</v>
@@ -6192,7 +6099,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C21" s="9">
         <v>0</v>
@@ -6258,7 +6165,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C24" s="9">
         <v>0</v>
@@ -6304,7 +6211,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C26" s="9">
         <v>0</v>
@@ -6396,7 +6303,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C30" s="9">
         <v>0</v>
@@ -6442,7 +6349,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C32" s="9">
         <v>0</v>
@@ -6466,7 +6373,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C33" s="9">
         <v>0</v>
@@ -6536,7 +6443,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C36" s="9">
         <v>0</v>
@@ -6560,7 +6467,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C37" s="9">
         <v>0</v>
@@ -6672,7 +6579,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C42" s="9">
         <v>0</v>
@@ -6738,7 +6645,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C45" s="9">
         <v>0</v>
@@ -6782,7 +6689,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C47" s="9">
         <v>0</v>
@@ -6828,23 +6735,23 @@
     <col min="2" max="2" width="15" style="3" customWidth="1"/>
     <col min="3" max="3" width="9" style="3"/>
     <col min="4" max="4" width="6.33333333333333" style="3" customWidth="1"/>
-    <col min="5" max="6" width="21.8888888888889" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.4444444444444" style="3" customWidth="1"/>
+    <col min="5" max="6" width="21.8916666666667" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.4416666666667" style="3" customWidth="1"/>
     <col min="8" max="9" width="9" style="3"/>
     <col min="10" max="10" width="6.33333333333333" style="3" customWidth="1"/>
     <col min="11" max="11" width="15" style="3" customWidth="1"/>
     <col min="12" max="12" width="9" style="3"/>
     <col min="13" max="13" width="6.33333333333333" style="3" customWidth="1"/>
-    <col min="14" max="15" width="21.8888888888889" style="3" customWidth="1"/>
-    <col min="16" max="16" width="16.4444444444444" style="3" customWidth="1"/>
-    <col min="17" max="17" width="9.22222222222222" style="3" customWidth="1"/>
+    <col min="14" max="15" width="21.8916666666667" style="3" customWidth="1"/>
+    <col min="16" max="16" width="16.4416666666667" style="3" customWidth="1"/>
+    <col min="17" max="17" width="9.225" style="3" customWidth="1"/>
     <col min="18" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="34.95" customHeight="1" spans="1:21">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -6854,7 +6761,7 @@
       <c r="H1" s="7"/>
       <c r="J1" s="4"/>
       <c r="K1" s="12" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="L1" s="13"/>
       <c r="M1" s="13"/>
@@ -6869,56 +6776,56 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="21" customHeight="1" spans="1:21">
       <c r="A2" s="8" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>332</v>
-      </c>
       <c r="O2" s="8" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="R2" s="8"/>
       <c r="S2" s="8" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="T2" s="8"/>
       <c r="U2" s="8"/>
@@ -6928,7 +6835,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C3" s="9">
         <v>41</v>
@@ -6948,7 +6855,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="L3" s="9">
         <v>10</v>
@@ -7000,7 +6907,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="L4" s="9">
         <v>13</v>
@@ -7052,7 +6959,7 @@
         <v>3</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="L5" s="9">
         <v>7</v>
@@ -7104,7 +7011,7 @@
         <v>4</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="L6" s="9">
         <v>22</v>
@@ -7148,7 +7055,7 @@
         <v>1153</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -7156,7 +7063,7 @@
         <v>5</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="L7" s="9">
         <v>15</v>
@@ -7208,7 +7115,7 @@
         <v>6</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="L8" s="9">
         <v>11</v>
@@ -7240,7 +7147,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C9" s="9">
         <v>14</v>
@@ -7260,7 +7167,7 @@
         <v>7</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="L9" s="9">
         <v>26</v>
@@ -7278,7 +7185,7 @@
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
       <c r="S9" s="9" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="T9" s="9">
         <v>2</v>
@@ -7292,7 +7199,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C10" s="9">
         <v>26</v>
@@ -7312,7 +7219,7 @@
         <v>8</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="L10" s="9">
         <v>19</v>
@@ -7358,7 +7265,7 @@
         <v>9</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="L11" s="9">
         <v>18</v>
@@ -7384,7 +7291,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C12" s="9">
         <v>21</v>
@@ -7404,7 +7311,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="L12" s="9">
         <v>13</v>
@@ -7450,7 +7357,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="L13" s="9">
         <v>12</v>
@@ -7476,7 +7383,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C14" s="9">
         <v>17</v>
@@ -7496,7 +7403,7 @@
         <v>12</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="L14" s="9">
         <v>9</v>
@@ -7522,7 +7429,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="C15" s="9">
         <v>5</v>
@@ -7542,7 +7449,7 @@
         <v>13</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="L15" s="9">
         <v>15</v>
@@ -7568,7 +7475,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C16" s="9">
         <v>18</v>
@@ -7588,7 +7495,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="L16" s="9">
         <v>19</v>
@@ -7634,7 +7541,7 @@
         <v>15</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="L17" s="9">
         <v>9</v>
@@ -7662,7 +7569,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C18" s="9">
         <v>10</v>
@@ -7682,7 +7589,7 @@
         <v>16</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="L18" s="9">
         <v>9</v>
@@ -7728,7 +7635,7 @@
         <v>17</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="L19" s="9">
         <v>9</v>
@@ -7756,7 +7663,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C20" s="9">
         <v>9</v>
@@ -7776,7 +7683,7 @@
         <v>18</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="L20" s="9">
         <v>4</v>
@@ -7802,7 +7709,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C21" s="9">
         <v>15</v>
@@ -7822,7 +7729,7 @@
         <v>19</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="L21" s="9">
         <v>10</v>
@@ -7868,7 +7775,7 @@
         <v>20</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="L22" s="9">
         <v>11</v>
@@ -7894,7 +7801,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C23" s="9">
         <v>11</v>
@@ -7914,7 +7821,7 @@
         <v>21</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="L23" s="9">
         <v>1</v>
@@ -7960,7 +7867,7 @@
         <v>22</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L24" s="9">
         <v>7</v>
@@ -8006,7 +7913,7 @@
         <v>23</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="L25" s="9">
         <v>4</v>
@@ -8052,7 +7959,7 @@
         <v>24</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="L26" s="9">
         <v>4</v>
@@ -8098,7 +8005,7 @@
         <v>25</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="L27" s="9">
         <v>10</v>
@@ -8144,7 +8051,7 @@
         <v>26</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="L28" s="9">
         <v>5</v>
@@ -8190,7 +8097,7 @@
         <v>27</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="L29" s="9">
         <v>6</v>
@@ -8236,7 +8143,7 @@
         <v>28</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="L30" s="9">
         <v>4</v>
@@ -8282,7 +8189,7 @@
         <v>29</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="L31" s="9">
         <v>5</v>
@@ -8328,7 +8235,7 @@
         <v>30</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="L32" s="9">
         <v>0</v>
@@ -8354,7 +8261,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C33" s="9">
         <v>0</v>
@@ -8374,7 +8281,7 @@
         <v>31</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="L33" s="9">
         <v>2</v>
@@ -8400,7 +8307,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C34" s="9">
         <v>6</v>
@@ -8420,7 +8327,7 @@
         <v>32</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="L34" s="9">
         <v>0</v>
@@ -8448,7 +8355,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C35" s="9">
         <v>6</v>
@@ -8470,7 +8377,7 @@
         <v>33</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="L35" s="9">
         <v>1</v>
@@ -8518,7 +8425,7 @@
         <v>34</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="L36" s="9">
         <v>2</v>
@@ -8568,7 +8475,7 @@
         <v>35</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="L37" s="9">
         <v>0</v>
@@ -8618,7 +8525,7 @@
         <v>36</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="L38" s="9">
         <v>0</v>
@@ -8668,7 +8575,7 @@
         <v>37</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="L39" s="9">
         <v>0</v>
@@ -8696,7 +8603,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C40" s="9">
         <v>1</v>
@@ -8718,7 +8625,7 @@
         <v>38</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="L40" s="9">
         <v>0</v>
@@ -8746,7 +8653,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C41" s="9">
         <v>0</v>
@@ -8768,7 +8675,7 @@
         <v>39</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="L41" s="9">
         <v>0</v>
@@ -8796,7 +8703,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C42" s="9">
         <v>0</v>
@@ -8844,7 +8751,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C44" s="9">
         <v>0</v>
@@ -8916,7 +8823,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C47" s="9">
         <v>0</v>
@@ -8940,7 +8847,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C48" s="9">
         <v>0</v>
@@ -9082,23 +8989,23 @@
     <col min="2" max="2" width="15" style="3" customWidth="1"/>
     <col min="3" max="3" width="9" style="3"/>
     <col min="4" max="4" width="6.33333333333333" style="3" customWidth="1"/>
-    <col min="5" max="6" width="21.8888888888889" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.4444444444444" style="3" customWidth="1"/>
+    <col min="5" max="6" width="21.8916666666667" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.4416666666667" style="3" customWidth="1"/>
     <col min="8" max="9" width="9" style="3"/>
     <col min="10" max="10" width="6.33333333333333" style="3" customWidth="1"/>
     <col min="11" max="11" width="15" style="3" customWidth="1"/>
     <col min="12" max="12" width="9" style="3"/>
     <col min="13" max="13" width="6.33333333333333" style="3" customWidth="1"/>
-    <col min="14" max="15" width="21.8888888888889" style="3" customWidth="1"/>
-    <col min="16" max="16" width="16.4444444444444" style="3" customWidth="1"/>
-    <col min="17" max="17" width="9.22222222222222" style="3" customWidth="1"/>
+    <col min="14" max="15" width="21.8916666666667" style="3" customWidth="1"/>
+    <col min="16" max="16" width="16.4416666666667" style="3" customWidth="1"/>
+    <col min="17" max="17" width="9.225" style="3" customWidth="1"/>
     <col min="18" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="34.95" customHeight="1" spans="1:21">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -9108,7 +9015,7 @@
       <c r="H1" s="7"/>
       <c r="J1" s="4"/>
       <c r="K1" s="12" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="L1" s="13"/>
       <c r="M1" s="13"/>
@@ -9123,56 +9030,56 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="21" customHeight="1" spans="1:21">
       <c r="A2" s="8" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>332</v>
-      </c>
       <c r="O2" s="8" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="R2" s="8"/>
       <c r="S2" s="8" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="T2" s="8"/>
       <c r="U2" s="8"/>
@@ -9182,7 +9089,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C3" s="9">
         <v>14</v>
@@ -9202,7 +9109,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="L3" s="9">
         <v>11</v>
@@ -9254,7 +9161,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="L4" s="9">
         <v>2</v>
@@ -9306,7 +9213,7 @@
         <v>3</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="L5" s="9">
         <v>6</v>
@@ -9338,7 +9245,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="C6" s="9">
         <v>0</v>
@@ -9358,7 +9265,7 @@
         <v>4</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="L6" s="9">
         <v>3</v>
@@ -9410,7 +9317,7 @@
         <v>5</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="L7" s="9">
         <v>1</v>
@@ -9462,7 +9369,7 @@
         <v>6</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="L8" s="9">
         <v>1</v>
@@ -9494,7 +9401,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C9" s="9">
         <v>1</v>
@@ -9514,7 +9421,7 @@
         <v>7</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="L9" s="9">
         <v>1</v>
@@ -9532,7 +9439,7 @@
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
       <c r="S9" s="9" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="T9" s="9">
         <v>3</v>
@@ -9546,7 +9453,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C10" s="9">
         <v>3</v>
@@ -9566,7 +9473,7 @@
         <v>8</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="L10" s="9">
         <v>0</v>
@@ -9612,7 +9519,7 @@
         <v>9</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="L11" s="9">
         <v>7</v>
@@ -9638,7 +9545,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C12" s="9">
         <v>5</v>
@@ -9658,7 +9565,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="L12" s="9">
         <v>1</v>
@@ -9684,7 +9591,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C13" s="9">
         <v>1</v>
@@ -9706,7 +9613,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="L13" s="9">
         <v>2</v>
@@ -9752,7 +9659,7 @@
         <v>12</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="L14" s="9">
         <v>3</v>
@@ -9778,7 +9685,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C15" s="9">
         <v>3</v>
@@ -9798,7 +9705,7 @@
         <v>13</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="L15" s="9">
         <v>2</v>
@@ -9844,7 +9751,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="L16" s="9">
         <v>2</v>
@@ -9892,7 +9799,7 @@
         <v>15</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="L17" s="9">
         <v>1</v>
@@ -9938,7 +9845,7 @@
         <v>16</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="L18" s="9">
         <v>1</v>
@@ -9964,7 +9871,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C19" s="9">
         <v>0</v>
@@ -9984,7 +9891,7 @@
         <v>17</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="L19" s="9">
         <v>0</v>
@@ -10030,7 +9937,7 @@
         <v>18</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="L20" s="9">
         <v>2</v>
@@ -10056,7 +9963,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C21" s="9">
         <v>1</v>
@@ -10076,7 +9983,7 @@
         <v>19</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="L21" s="9">
         <v>0</v>
@@ -10102,7 +10009,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C22" s="9">
         <v>0</v>
@@ -10124,7 +10031,7 @@
         <v>20</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="L22" s="9">
         <v>0</v>
@@ -10150,7 +10057,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C23" s="9">
         <v>2</v>
@@ -10170,7 +10077,7 @@
         <v>21</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="L23" s="9">
         <v>0</v>
@@ -10198,7 +10105,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C24" s="9">
         <v>1</v>
@@ -10218,7 +10125,7 @@
         <v>22</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="L24" s="9">
         <v>0</v>
@@ -10266,7 +10173,7 @@
         <v>23</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="L25" s="9">
         <v>0</v>
@@ -10314,7 +10221,7 @@
         <v>24</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="L26" s="9">
         <v>0</v>
@@ -10362,7 +10269,7 @@
         <v>25</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="L27" s="9">
         <v>0</v>
@@ -10408,7 +10315,7 @@
         <v>26</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="L28" s="9">
         <v>0</v>
@@ -10436,7 +10343,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C29" s="9">
         <v>0</v>
@@ -10456,7 +10363,7 @@
         <v>27</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="L29" s="9">
         <v>0</v>
@@ -10504,7 +10411,7 @@
         <v>28</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="L30" s="9">
         <v>0</v>
@@ -10532,7 +10439,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C31" s="9">
         <v>0</v>
@@ -10552,7 +10459,7 @@
         <v>29</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="L31" s="9">
         <v>0</v>
@@ -10598,7 +10505,7 @@
         <v>30</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="L32" s="9">
         <v>0</v>
@@ -10626,7 +10533,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C33" s="9">
         <v>1</v>
@@ -10646,7 +10553,7 @@
         <v>31</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="L33" s="9">
         <v>0</v>
@@ -10692,7 +10599,7 @@
         <v>32</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="L34" s="9">
         <v>0</v>
@@ -10738,7 +10645,7 @@
         <v>33</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="L35" s="9">
         <v>0</v>
@@ -10800,7 +10707,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C37" s="9">
         <v>0</v>
@@ -10836,7 +10743,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C38" s="9">
         <v>0</v>
@@ -11056,7 +10963,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C45" s="9">
         <v>0</v>
@@ -11080,7 +10987,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C46" s="9">
         <v>0</v>
@@ -11104,7 +11011,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C47" s="9">
         <v>0</v>
@@ -11128,7 +11035,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C48" s="9">
         <v>0</v>
@@ -11174,23 +11081,23 @@
     <col min="2" max="2" width="15" style="3" customWidth="1"/>
     <col min="3" max="3" width="9" style="3"/>
     <col min="4" max="4" width="6.33333333333333" style="3" customWidth="1"/>
-    <col min="5" max="6" width="21.8888888888889" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.4444444444444" style="3" customWidth="1"/>
+    <col min="5" max="6" width="21.8916666666667" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.4416666666667" style="3" customWidth="1"/>
     <col min="8" max="9" width="9" style="3"/>
     <col min="10" max="10" width="6.33333333333333" style="3" customWidth="1"/>
     <col min="11" max="11" width="15" style="3" customWidth="1"/>
     <col min="12" max="12" width="9" style="3"/>
     <col min="13" max="13" width="6.33333333333333" style="3" customWidth="1"/>
-    <col min="14" max="15" width="21.8888888888889" style="3" customWidth="1"/>
-    <col min="16" max="16" width="16.4444444444444" style="3" customWidth="1"/>
-    <col min="17" max="17" width="9.22222222222222" style="3" customWidth="1"/>
+    <col min="14" max="15" width="21.8916666666667" style="3" customWidth="1"/>
+    <col min="16" max="16" width="16.4416666666667" style="3" customWidth="1"/>
+    <col min="17" max="17" width="9.225" style="3" customWidth="1"/>
     <col min="18" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="34.95" customHeight="1" spans="1:21">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -11200,7 +11107,7 @@
       <c r="H1" s="7"/>
       <c r="J1" s="4"/>
       <c r="K1" s="12" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="L1" s="13"/>
       <c r="M1" s="13"/>
@@ -11215,56 +11122,56 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="21" customHeight="1" spans="1:21">
       <c r="A2" s="8" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>332</v>
-      </c>
       <c r="O2" s="8" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="R2" s="8"/>
       <c r="S2" s="8" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="T2" s="8"/>
       <c r="U2" s="8"/>
@@ -11274,7 +11181,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -11290,7 +11197,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
@@ -11318,7 +11225,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -11334,7 +11241,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
@@ -11362,7 +11269,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -11378,7 +11285,7 @@
         <v>3</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
@@ -11406,7 +11313,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -11422,7 +11329,7 @@
         <v>4</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
@@ -11466,7 +11373,7 @@
         <v>5</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -11510,7 +11417,7 @@
         <v>6</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
@@ -11538,7 +11445,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -11554,7 +11461,7 @@
         <v>7</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
@@ -11568,7 +11475,7 @@
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
       <c r="S9" s="9" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="T9" s="9">
         <v>11</v>
@@ -11582,7 +11489,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -11598,7 +11505,7 @@
         <v>8</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
@@ -11636,7 +11543,7 @@
         <v>9</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
@@ -11658,7 +11565,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -11674,7 +11581,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
@@ -11696,7 +11603,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -11712,7 +11619,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
@@ -11752,7 +11659,7 @@
         <v>12</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
@@ -11776,7 +11683,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -11792,7 +11699,7 @@
         <v>13</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
@@ -11830,7 +11737,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
@@ -11870,7 +11777,7 @@
         <v>15</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
@@ -11892,7 +11799,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -11908,7 +11815,7 @@
         <v>16</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
@@ -11946,7 +11853,7 @@
         <v>17</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
@@ -11968,7 +11875,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -11984,7 +11891,7 @@
         <v>18</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
@@ -12008,7 +11915,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -12024,7 +11931,7 @@
         <v>19</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
@@ -12048,7 +11955,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -12064,7 +11971,7 @@
         <v>20</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
@@ -12102,7 +12009,7 @@
         <v>21</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
@@ -12140,7 +12047,7 @@
         <v>22</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
@@ -12178,7 +12085,7 @@
         <v>23</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
@@ -12202,7 +12109,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -12266,7 +12173,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -12330,7 +12237,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -12362,7 +12269,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -12394,7 +12301,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -12426,7 +12333,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -12458,7 +12365,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -12522,7 +12429,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -12554,7 +12461,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -12586,7 +12493,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -12650,7 +12557,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -12682,7 +12589,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -12754,7 +12661,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -12790,7 +12697,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -12808,7 +12715,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -12848,7 +12755,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
@@ -12868,7 +12775,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
@@ -12908,7 +12815,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="11"/>
@@ -12948,7 +12855,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
@@ -12968,7 +12875,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
@@ -12986,7 +12893,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
@@ -13007,7 +12914,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
@@ -13028,7 +12935,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
@@ -13046,7 +12953,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
@@ -13066,7 +12973,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
@@ -13120,23 +13027,23 @@
     <col min="2" max="2" width="15" style="3" customWidth="1"/>
     <col min="3" max="3" width="9" style="3"/>
     <col min="4" max="4" width="6.33333333333333" style="3" customWidth="1"/>
-    <col min="5" max="6" width="21.8888888888889" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.4444444444444" style="3" customWidth="1"/>
+    <col min="5" max="6" width="21.8916666666667" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.4416666666667" style="3" customWidth="1"/>
     <col min="8" max="9" width="9" style="3"/>
     <col min="10" max="10" width="6.33333333333333" style="3" customWidth="1"/>
     <col min="11" max="11" width="15" style="3" customWidth="1"/>
     <col min="12" max="12" width="9" style="3"/>
     <col min="13" max="13" width="6.33333333333333" style="3" customWidth="1"/>
-    <col min="14" max="15" width="21.8888888888889" style="3" customWidth="1"/>
-    <col min="16" max="16" width="16.4444444444444" style="3" customWidth="1"/>
-    <col min="17" max="17" width="9.22222222222222" style="3" customWidth="1"/>
+    <col min="14" max="15" width="21.8916666666667" style="3" customWidth="1"/>
+    <col min="16" max="16" width="16.4416666666667" style="3" customWidth="1"/>
+    <col min="17" max="17" width="9.225" style="3" customWidth="1"/>
     <col min="18" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="34.95" customHeight="1" spans="1:21">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -13146,7 +13053,7 @@
       <c r="H1" s="7"/>
       <c r="J1" s="4"/>
       <c r="K1" s="12" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="L1" s="13"/>
       <c r="M1" s="13"/>
@@ -13161,56 +13068,56 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="21" customHeight="1" spans="1:21">
       <c r="A2" s="8" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>332</v>
-      </c>
       <c r="O2" s="8" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="R2" s="8"/>
       <c r="S2" s="8" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="T2" s="8"/>
       <c r="U2" s="8"/>
@@ -13406,7 +13313,7 @@
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
       <c r="S9" s="9" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="T9" s="9"/>
       <c r="U9" s="9"/>
@@ -14627,22 +14534,22 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="31.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.4444444444444" style="54" customWidth="1"/>
+    <col min="1" max="1" width="12.4416666666667" style="54" customWidth="1"/>
     <col min="2" max="2" width="25" style="54" customWidth="1"/>
-    <col min="3" max="4" width="32.2222222222222" style="54" customWidth="1"/>
+    <col min="3" max="4" width="32.225" style="54" customWidth="1"/>
     <col min="5" max="5" width="23.6666666666667" style="54" customWidth="1"/>
     <col min="6" max="6" width="32" style="54" customWidth="1"/>
     <col min="7" max="7" width="29" style="54" customWidth="1"/>
-    <col min="8" max="8" width="22.7777777777778" style="54" customWidth="1"/>
-    <col min="9" max="9" width="33.8888888888889" style="54" customWidth="1"/>
+    <col min="8" max="8" width="22.775" style="54" customWidth="1"/>
+    <col min="9" max="9" width="24.9916666666667" style="54" customWidth="1"/>
     <col min="10" max="10" width="27.6666666666667" style="54" customWidth="1"/>
-    <col min="11" max="11" width="28.7777777777778" style="54" customWidth="1"/>
-    <col min="12" max="12" width="77.7777777777778" style="76" customWidth="1"/>
+    <col min="11" max="11" width="28.775" style="54" customWidth="1"/>
+    <col min="12" max="12" width="77.775" style="76" customWidth="1"/>
     <col min="13" max="13" width="15.6666666666667" style="76" customWidth="1"/>
     <col min="14" max="14" width="9.33333333333333" style="54" customWidth="1"/>
     <col min="15" max="15" width="12.6666666666667" style="54" customWidth="1"/>
@@ -14664,12 +14571,12 @@
       <c r="H1" s="78"/>
       <c r="I1" s="78"/>
       <c r="J1" s="78"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="120" t="s">
+      <c r="K1" s="122"/>
+      <c r="L1" s="123" t="s">
         <v>92</v>
       </c>
-      <c r="M1" s="121"/>
-      <c r="N1" s="122"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="125"/>
     </row>
     <row r="2" s="74" customFormat="1" customHeight="1" spans="1:16">
       <c r="A2" s="32" t="s">
@@ -14690,12 +14597,12 @@
       <c r="H2" s="84"/>
       <c r="I2" s="84"/>
       <c r="J2" s="84"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="124" t="s">
+      <c r="K2" s="126"/>
+      <c r="L2" s="127" t="s">
         <v>97</v>
       </c>
-      <c r="M2" s="125"/>
-      <c r="N2" s="126" t="s">
+      <c r="M2" s="128"/>
+      <c r="N2" s="129" t="s">
         <v>98</v>
       </c>
       <c r="P2" s="69"/>
@@ -14716,49 +14623,49 @@
       <c r="G3" s="88" t="s">
         <v>102</v>
       </c>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89" t="s">
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88" t="s">
         <v>103</v>
       </c>
-      <c r="K3" s="127"/>
-      <c r="L3" s="124"/>
-      <c r="M3" s="125"/>
-      <c r="N3" s="126"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="129"/>
       <c r="P3" s="69"/>
     </row>
     <row r="4" s="53" customFormat="1" customHeight="1" spans="1:16">
-      <c r="A4" s="90">
+      <c r="A4" s="89">
         <v>1</v>
       </c>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="90" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="90" t="s">
         <v>105</v>
       </c>
       <c r="D4" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="E4" s="91" t="s">
+      <c r="E4" s="90" t="s">
         <v>107</v>
       </c>
-      <c r="F4" s="91" t="s">
+      <c r="F4" s="90" t="s">
         <v>108</v>
       </c>
-      <c r="G4" s="91" t="s">
+      <c r="G4" s="90" t="s">
         <v>109</v>
       </c>
-      <c r="H4" s="91" t="s">
+      <c r="H4" s="90" t="s">
         <v>110</v>
       </c>
-      <c r="I4" s="128" t="s">
+      <c r="I4" s="130" t="s">
         <v>111</v>
       </c>
-      <c r="J4" s="129" t="s">
+      <c r="J4" s="90" t="s">
         <v>112</v>
       </c>
-      <c r="K4" s="130" t="s">
+      <c r="K4" s="90" t="s">
         <v>113</v>
       </c>
       <c r="L4" s="131" t="s">
@@ -14771,7 +14678,7 @@
       </c>
     </row>
     <row r="5" s="53" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A5" s="90">
+      <c r="A5" s="89">
         <v>2</v>
       </c>
       <c r="B5" s="92" t="s">
@@ -14792,25 +14699,25 @@
       <c r="G5" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="H5" s="91" t="s">
+      <c r="H5" s="90" t="s">
         <v>122</v>
       </c>
       <c r="I5" s="135" t="s">
         <v>123</v>
       </c>
-      <c r="J5" s="136" t="s">
+      <c r="J5" s="90" t="s">
         <v>124</v>
       </c>
-      <c r="K5" s="137" t="s">
+      <c r="K5" s="90" t="s">
         <v>125</v>
       </c>
       <c r="L5" s="131"/>
       <c r="M5" s="132"/>
-      <c r="P5" s="138"/>
+      <c r="P5" s="136"/>
       <c r="Q5" s="134"/>
     </row>
     <row r="6" s="53" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A6" s="90">
+      <c r="A6" s="89">
         <v>3</v>
       </c>
       <c r="B6" s="95" t="s">
@@ -14834,25 +14741,25 @@
       <c r="H6" s="98" t="s">
         <v>131</v>
       </c>
-      <c r="I6" s="139" t="s">
+      <c r="I6" s="113" t="s">
         <v>132</v>
       </c>
-      <c r="J6" s="140" t="s">
+      <c r="J6" s="113" t="s">
         <v>133</v>
       </c>
-      <c r="K6" s="141" t="s">
+      <c r="K6" s="102" t="s">
         <v>134</v>
       </c>
       <c r="L6" s="131" t="s">
         <v>135</v>
       </c>
-      <c r="M6" s="142"/>
-      <c r="O6" s="143"/>
+      <c r="M6" s="137"/>
+      <c r="O6" s="138"/>
       <c r="P6" s="133"/>
       <c r="Q6" s="134"/>
     </row>
     <row r="7" s="53" customFormat="1" customHeight="1" spans="1:16">
-      <c r="A7" s="90">
+      <c r="A7" s="89">
         <v>4</v>
       </c>
       <c r="B7" s="100" t="s">
@@ -14861,7 +14768,7 @@
       <c r="C7" s="100" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="96" t="s">
+      <c r="D7" s="100" t="s">
         <v>138</v>
       </c>
       <c r="E7" s="100" t="s">
@@ -14876,18 +14783,18 @@
       <c r="H7" s="102" t="s">
         <v>142</v>
       </c>
-      <c r="I7" s="144" t="s">
+      <c r="I7" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="145" t="s">
+      <c r="J7" s="140" t="s">
         <v>143</v>
       </c>
-      <c r="K7" s="146" t="s">
+      <c r="K7" s="140" t="s">
         <v>144</v>
       </c>
       <c r="L7" s="131"/>
-      <c r="M7" s="142"/>
-      <c r="N7" s="147" t="s">
+      <c r="M7" s="137"/>
+      <c r="N7" s="141" t="s">
         <v>145</v>
       </c>
       <c r="P7" s="70" t="s">
@@ -14895,7 +14802,7 @@
       </c>
     </row>
     <row r="8" s="53" customFormat="1" customHeight="1" spans="1:16">
-      <c r="A8" s="90">
+      <c r="A8" s="89">
         <v>5</v>
       </c>
       <c r="B8" s="103" t="s">
@@ -14919,20 +14826,20 @@
       <c r="H8" s="106" t="s">
         <v>153</v>
       </c>
-      <c r="I8" s="148" t="s">
+      <c r="I8" s="142" t="s">
         <v>154</v>
       </c>
-      <c r="J8" s="149" t="s">
+      <c r="J8" s="106" t="s">
         <v>155</v>
       </c>
-      <c r="K8" s="150" t="s">
+      <c r="K8" s="98" t="s">
         <v>156</v>
       </c>
-      <c r="L8" s="151" t="s">
+      <c r="L8" s="143" t="s">
         <v>157</v>
       </c>
-      <c r="M8" s="152"/>
-      <c r="N8" s="147" t="s">
+      <c r="M8" s="144"/>
+      <c r="N8" s="141" t="s">
         <v>158</v>
       </c>
       <c r="P8" s="69" t="s">
@@ -14940,7 +14847,7 @@
       </c>
     </row>
     <row r="9" s="53" customFormat="1" customHeight="1" spans="1:16">
-      <c r="A9" s="90">
+      <c r="A9" s="89">
         <v>6</v>
       </c>
       <c r="B9" s="106" t="s">
@@ -14964,21 +14871,21 @@
       <c r="H9" s="107" t="s">
         <v>166</v>
       </c>
-      <c r="I9" s="98" t="s">
+      <c r="I9" s="145" t="s">
         <v>167</v>
       </c>
-      <c r="J9" s="153" t="s">
+      <c r="J9" s="107" t="s">
         <v>168</v>
       </c>
-      <c r="K9" s="154" t="s">
+      <c r="K9" s="107" t="s">
         <v>169</v>
       </c>
-      <c r="L9" s="151"/>
-      <c r="M9" s="152"/>
-      <c r="N9" s="138" t="s">
+      <c r="L9" s="143"/>
+      <c r="M9" s="144"/>
+      <c r="N9" s="136" t="s">
         <v>170</v>
       </c>
-      <c r="P9" s="138"/>
+      <c r="P9" s="136"/>
     </row>
     <row r="10" s="53" customFormat="1" customHeight="1" spans="1:16">
       <c r="A10" s="108" t="s">
@@ -14992,14 +14899,14 @@
       <c r="G10" s="109"/>
       <c r="H10" s="109"/>
       <c r="I10" s="109"/>
-      <c r="J10" s="155"/>
-      <c r="K10" s="156"/>
-      <c r="L10" s="157"/>
-      <c r="M10" s="152"/>
-      <c r="N10" s="158" t="s">
+      <c r="J10" s="146"/>
+      <c r="K10" s="147"/>
+      <c r="L10" s="148"/>
+      <c r="M10" s="144"/>
+      <c r="N10" s="149" t="s">
         <v>172</v>
       </c>
-      <c r="P10" s="159" t="s">
+      <c r="P10" s="150" t="s">
         <v>173</v>
       </c>
     </row>
@@ -15016,15 +14923,15 @@
       <c r="H11" s="109"/>
       <c r="I11" s="109"/>
       <c r="J11" s="109"/>
-      <c r="K11" s="160"/>
-      <c r="L11" s="161" t="s">
+      <c r="K11" s="151"/>
+      <c r="L11" s="152" t="s">
         <v>175</v>
       </c>
-      <c r="M11" s="162"/>
-      <c r="N11" s="163" t="s">
+      <c r="M11" s="153"/>
+      <c r="N11" s="154" t="s">
         <v>176</v>
       </c>
-      <c r="P11" s="163"/>
+      <c r="P11" s="154"/>
     </row>
     <row r="12" s="53" customFormat="1" customHeight="1" spans="1:16">
       <c r="A12" s="108" t="s">
@@ -15039,18 +14946,18 @@
       <c r="H12" s="109"/>
       <c r="I12" s="109"/>
       <c r="J12" s="109"/>
-      <c r="K12" s="160"/>
-      <c r="L12" s="164"/>
-      <c r="M12" s="165" t="s">
+      <c r="K12" s="151"/>
+      <c r="L12" s="155"/>
+      <c r="M12" s="156" t="s">
         <v>178</v>
       </c>
       <c r="N12" s="69" t="s">
         <v>179</v>
       </c>
-      <c r="O12" s="166" t="s">
+      <c r="O12" s="157" t="s">
         <v>115</v>
       </c>
-      <c r="P12" s="138" t="s">
+      <c r="P12" s="136" t="s">
         <v>170</v>
       </c>
     </row>
@@ -15067,19 +14974,19 @@
       <c r="H13" s="109"/>
       <c r="I13" s="109"/>
       <c r="J13" s="109"/>
-      <c r="K13" s="160"/>
-      <c r="L13" s="167" t="s">
+      <c r="K13" s="151"/>
+      <c r="L13" s="158" t="s">
         <v>181</v>
       </c>
-      <c r="M13" s="162"/>
+      <c r="M13" s="153"/>
       <c r="N13" s="134" t="s">
-        <v>138</v>
-      </c>
-      <c r="P13" s="168" t="s">
+        <v>123</v>
+      </c>
+      <c r="P13" s="159" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="14" s="75" customFormat="1" customHeight="1" spans="2:7">
+    <row r="14" s="75" customFormat="1" customHeight="1" spans="2:8">
       <c r="B14" s="110" t="s">
         <v>183</v>
       </c>
@@ -15093,86 +15000,98 @@
       <c r="G14" s="112" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="15" s="75" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A15" s="113" t="s">
+      <c r="H14" s="113" t="s">
         <v>187</v>
       </c>
-      <c r="B15" s="114" t="s">
+    </row>
+    <row r="15" s="75" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A15" s="114" t="s">
         <v>188</v>
       </c>
-      <c r="C15" s="115" t="s">
+      <c r="B15" s="115" t="s">
         <v>189</v>
       </c>
-      <c r="D15" s="115"/>
-      <c r="E15" s="91" t="s">
+      <c r="C15" s="116" t="s">
         <v>190</v>
+      </c>
+      <c r="D15" s="116"/>
+      <c r="E15" s="90" t="s">
+        <v>191</v>
+      </c>
+      <c r="F15" s="90" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="16" s="75" customFormat="1" customHeight="1"/>
     <row r="17" customHeight="1" spans="2:9">
-      <c r="B17" s="116"/>
-      <c r="I17" s="169" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="2:11">
-      <c r="B18" s="116"/>
-      <c r="I18" s="91" t="s">
-        <v>192</v>
-      </c>
-      <c r="J18" s="91" t="s">
+      <c r="B17" s="117"/>
+      <c r="D17" s="90" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17" s="118" t="s">
+        <v>193</v>
+      </c>
+      <c r="I17" s="160" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="8:11">
+      <c r="H18" s="119" t="s">
+        <v>195</v>
+      </c>
+      <c r="I18" s="90" t="s">
+        <v>196</v>
+      </c>
+      <c r="J18" s="90" t="s">
         <v>113</v>
       </c>
       <c r="K18" s="100" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:11">
-      <c r="B19" s="116"/>
+      <c r="B19" s="117"/>
       <c r="C19" s="104" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D19" s="104"/>
       <c r="E19" s="102" t="s">
-        <v>195</v>
-      </c>
-      <c r="G19" s="91" t="s">
-        <v>196</v>
+        <v>199</v>
+      </c>
+      <c r="G19" s="90" t="s">
+        <v>200</v>
       </c>
       <c r="H19" s="112" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="I19" s="92" t="s">
-        <v>198</v>
-      </c>
-      <c r="J19" s="91" t="s">
-        <v>199</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="J19" s="54"/>
       <c r="K19" s="102" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="5:11">
-      <c r="E21" s="117" t="s">
-        <v>200</v>
+      <c r="E21" s="120" t="s">
+        <v>203</v>
       </c>
       <c r="F21" s="92" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G21" s="92" t="s">
-        <v>202</v>
-      </c>
-      <c r="H21" s="118" t="s">
-        <v>203</v>
+        <v>205</v>
+      </c>
+      <c r="H21" s="121" t="s">
+        <v>206</v>
       </c>
       <c r="K21" s="92" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="8:8">
       <c r="H22" s="98" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -15212,7 +15131,7 @@
   <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="31.95" customHeight="1" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="6.33333333333333" style="54" customWidth="1"/>
-    <col min="2" max="11" width="13.1111111111111" style="54" customWidth="1"/>
+    <col min="2" max="11" width="13.1083333333333" style="54" customWidth="1"/>
     <col min="12" max="12" width="12.6666666666667" style="54" customWidth="1"/>
     <col min="13" max="13" width="14.3333333333333" style="54" customWidth="1"/>
     <col min="14" max="16363" width="12.6666666666667" style="54" customWidth="1"/>
@@ -15221,7 +15140,7 @@
   <sheetData>
     <row r="1" s="52" customFormat="1" ht="45" spans="1:11">
       <c r="A1" s="55" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B1" s="56"/>
       <c r="C1" s="56"/>
@@ -15239,14 +15158,14 @@
         <v>93</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C2" s="58"/>
       <c r="D2" s="58"/>
       <c r="E2" s="58"/>
       <c r="F2" s="58"/>
       <c r="G2" s="59" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H2" s="59"/>
       <c r="I2" s="59"/>
@@ -15259,7 +15178,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="61" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C3" s="61" t="s">
         <v>158</v>
@@ -15268,25 +15187,25 @@
         <v>25</v>
       </c>
       <c r="E3" s="61" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F3" s="62" t="s">
         <v>145</v>
       </c>
       <c r="G3" s="61" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H3" s="61" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="I3" s="61" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="J3" s="61" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="K3" s="61" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M3" s="63"/>
     </row>
@@ -15295,22 +15214,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="61" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C4" s="61" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D4" s="63" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E4" s="63" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F4" s="64" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="61" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H4" s="63" t="s">
         <v>127</v>
@@ -15319,10 +15238,10 @@
         <v>115</v>
       </c>
       <c r="J4" s="61" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K4" s="63" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M4" s="66"/>
       <c r="N4" s="63"/>
@@ -15335,13 +15254,13 @@
         <v>14</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="D5" s="65" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E5" s="66" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F5" s="67" t="s">
         <v>142</v>
@@ -15350,16 +15269,16 @@
         <v>44</v>
       </c>
       <c r="H5" s="66" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I5" s="66" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="J5" s="65" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="K5" s="66" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M5" s="67"/>
       <c r="N5" s="63"/>
@@ -15372,31 +15291,31 @@
         <v>27</v>
       </c>
       <c r="C6" s="68" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D6" s="68" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E6" s="68" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F6" s="65" t="s">
         <v>176</v>
       </c>
       <c r="G6" s="68" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H6" s="65" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="I6" s="66" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="J6" s="68" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="K6" s="68" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M6" s="70"/>
     </row>
@@ -15408,28 +15327,28 @@
         <v>19</v>
       </c>
       <c r="C7" s="69" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D7" s="69" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E7" s="69" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F7" s="69" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G7" s="69" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H7" s="69" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="I7" s="69" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="J7" s="69" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="K7" s="69" t="s">
         <v>179</v>
@@ -15444,34 +15363,34 @@
         <v>160</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D8" s="70" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E8" s="70" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F8" s="70" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="G8" s="70" t="s">
         <v>146</v>
       </c>
       <c r="H8" s="70" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="I8" s="68" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="J8" s="70" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K8" s="69" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="M8" s="66" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="N8" s="65"/>
     </row>
@@ -15495,35 +15414,35 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="5.11111111111111" style="27" customWidth="1"/>
+    <col min="1" max="1" width="5.10833333333333" style="27" customWidth="1"/>
     <col min="2" max="2" width="16" style="27" customWidth="1"/>
-    <col min="3" max="4" width="8.88888888888889" style="27" customWidth="1"/>
-    <col min="5" max="6" width="5.11111111111111" style="27" customWidth="1"/>
+    <col min="3" max="4" width="8.89166666666667" style="27" customWidth="1"/>
+    <col min="5" max="6" width="5.10833333333333" style="27" customWidth="1"/>
     <col min="7" max="7" width="2.33333333333333" style="27" customWidth="1"/>
-    <col min="8" max="8" width="13.1111111111111" style="27" customWidth="1"/>
-    <col min="9" max="9" width="9.88888888888889" style="27" customWidth="1"/>
-    <col min="10" max="10" width="8.88888888888889" style="27" customWidth="1"/>
-    <col min="11" max="12" width="5.11111111111111" style="27" customWidth="1"/>
+    <col min="8" max="8" width="13.1083333333333" style="27" customWidth="1"/>
+    <col min="9" max="9" width="9.89166666666667" style="27" customWidth="1"/>
+    <col min="10" max="10" width="8.89166666666667" style="27" customWidth="1"/>
+    <col min="11" max="12" width="5.10833333333333" style="27" customWidth="1"/>
     <col min="13" max="13" width="6.66666666666667" style="27" customWidth="1"/>
     <col min="14" max="14" width="2.33333333333333" style="27" customWidth="1"/>
     <col min="15" max="15" width="13.6666666666667" style="27" customWidth="1"/>
-    <col min="16" max="16" width="9.88888888888889" style="27" customWidth="1"/>
-    <col min="17" max="17" width="8.88888888888889" style="27" customWidth="1"/>
-    <col min="18" max="19" width="5.11111111111111" style="27" customWidth="1"/>
+    <col min="16" max="16" width="9.89166666666667" style="27" customWidth="1"/>
+    <col min="17" max="17" width="8.89166666666667" style="27" customWidth="1"/>
+    <col min="18" max="19" width="5.10833333333333" style="27" customWidth="1"/>
     <col min="20" max="20" width="6.66666666666667" style="27" customWidth="1"/>
     <col min="21" max="21" width="2.33333333333333" style="27" customWidth="1"/>
-    <col min="22" max="22" width="13.4444444444444" style="27" customWidth="1"/>
-    <col min="23" max="24" width="8.88888888888889" style="27" customWidth="1"/>
+    <col min="22" max="22" width="13.4416666666667" style="27" customWidth="1"/>
+    <col min="23" max="24" width="8.89166666666667" style="27" customWidth="1"/>
     <col min="25" max="25" width="9.33333333333333" style="27" customWidth="1"/>
-    <col min="26" max="26" width="5.11111111111111" style="27" customWidth="1"/>
+    <col min="26" max="26" width="5.10833333333333" style="27" customWidth="1"/>
     <col min="27" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
     <row r="1" s="26" customFormat="1" ht="22.95" customHeight="1" spans="1:26">
       <c r="A1" s="28" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -15540,14 +15459,14 @@
       <c r="N1" s="47"/>
       <c r="O1" s="47"/>
       <c r="P1" s="47" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q1" s="47"/>
       <c r="R1" s="47"/>
       <c r="S1" s="47"/>
       <c r="T1" s="47"/>
       <c r="U1" s="47" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="V1" s="47"/>
       <c r="W1" s="47"/>
@@ -15555,78 +15474,78 @@
       <c r="Y1" s="47"/>
       <c r="Z1" s="47"/>
     </row>
-    <row r="2" ht="23.4" spans="1:26">
+    <row r="2" ht="22.5" spans="1:26">
       <c r="A2" s="30"/>
       <c r="B2" s="31" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="G2" s="30"/>
       <c r="H2" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="J2" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="I2" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="J2" s="30" t="s">
-        <v>255</v>
-      </c>
       <c r="K2" s="30" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="M2" s="30"/>
       <c r="N2" s="30"/>
       <c r="O2" s="31" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="P2" s="30" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q2" s="30" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="R2" s="30" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="S2" s="30" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="T2" s="30"/>
       <c r="U2" s="30"/>
       <c r="V2" s="30"/>
       <c r="W2" s="30" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="X2" s="30" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Y2" s="30" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Z2" s="30" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="3" ht="16.2" spans="1:26">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" s="30">
         <v>1</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
@@ -15636,7 +15555,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="I3" s="48"/>
       <c r="J3" s="30"/>
@@ -15661,14 +15580,14 @@
         <v>44</v>
       </c>
       <c r="W3" s="30" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="X3" s="30"/>
       <c r="Y3" s="30" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Z3" s="30" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -15676,7 +15595,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
@@ -15697,7 +15616,7 @@
         <v>2</v>
       </c>
       <c r="O4" s="34" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="P4" s="48"/>
       <c r="Q4" s="30"/>
@@ -15708,21 +15627,21 @@
         <v>2</v>
       </c>
       <c r="V4" s="34" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="W4" s="30" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="X4" s="30"/>
       <c r="Y4" s="30"/>
       <c r="Z4" s="30"/>
     </row>
-    <row r="5" ht="16.2" spans="1:26">
+    <row r="5" spans="1:26">
       <c r="A5" s="30">
         <v>3</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
@@ -15732,7 +15651,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="I5" s="49"/>
       <c r="J5" s="30"/>
@@ -15743,7 +15662,7 @@
         <v>3</v>
       </c>
       <c r="O5" s="34" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="P5" s="49"/>
       <c r="Q5" s="30"/>
@@ -15766,7 +15685,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -15798,7 +15717,7 @@
         <v>4</v>
       </c>
       <c r="V6" s="36" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="W6" s="30"/>
       <c r="X6" s="30"/>
@@ -15810,7 +15729,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C7" s="30"/>
       <c r="D7" s="30"/>
@@ -15820,7 +15739,7 @@
         <v>5</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="I7" s="48"/>
       <c r="J7" s="30"/>
@@ -15831,7 +15750,7 @@
         <v>5</v>
       </c>
       <c r="O7" s="37" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="P7" s="48"/>
       <c r="Q7" s="30"/>
@@ -15842,7 +15761,7 @@
         <v>5</v>
       </c>
       <c r="V7" s="50" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="W7" s="30"/>
       <c r="X7" s="30"/>
@@ -15864,7 +15783,7 @@
         <v>6</v>
       </c>
       <c r="H8" s="39" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="I8" s="48"/>
       <c r="J8" s="30"/>
@@ -15886,73 +15805,73 @@
         <v>6</v>
       </c>
       <c r="V8" s="39" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="W8" s="30"/>
       <c r="X8" s="30"/>
       <c r="Y8" s="30"/>
       <c r="Z8" s="30"/>
     </row>
-    <row r="9" ht="20.4" spans="1:26">
+    <row r="9" ht="21" spans="1:26">
       <c r="A9" s="30"/>
       <c r="B9" s="30"/>
       <c r="C9" s="30" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="G9" s="30"/>
       <c r="H9" s="40" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="J9" s="30" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K9" s="30" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L9" s="30" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="M9" s="30"/>
       <c r="N9" s="30"/>
       <c r="O9" s="30"/>
       <c r="P9" s="30" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q9" s="30" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="R9" s="30" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="S9" s="30" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
       <c r="V9" s="30"/>
       <c r="W9" s="30" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="X9" s="30" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Y9" s="30" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Z9" s="30" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -15960,7 +15879,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
@@ -15970,7 +15889,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="34" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="I10" s="30"/>
       <c r="J10" s="30"/>
@@ -15992,7 +15911,7 @@
         <v>1</v>
       </c>
       <c r="V10" s="34" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="W10" s="30"/>
       <c r="X10" s="30"/>
@@ -16004,7 +15923,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
@@ -16014,7 +15933,7 @@
         <v>2</v>
       </c>
       <c r="H11" s="34" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="I11" s="30"/>
       <c r="J11" s="30"/>
@@ -16025,7 +15944,7 @@
         <v>2</v>
       </c>
       <c r="O11" s="35" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="P11" s="30"/>
       <c r="Q11" s="30"/>
@@ -16036,7 +15955,7 @@
         <v>2</v>
       </c>
       <c r="V11" s="51" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="W11" s="30"/>
       <c r="X11" s="30"/>
@@ -16048,7 +15967,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
@@ -16058,7 +15977,7 @@
         <v>3</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="I12" s="30"/>
       <c r="J12" s="30"/>
@@ -16080,7 +15999,7 @@
         <v>3</v>
       </c>
       <c r="V12" s="38" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="W12" s="30"/>
       <c r="X12" s="30"/>
@@ -16092,7 +16011,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
@@ -16124,7 +16043,7 @@
         <v>4</v>
       </c>
       <c r="V13" s="37" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="W13" s="30"/>
       <c r="X13" s="30"/>
@@ -16136,7 +16055,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
@@ -16157,7 +16076,7 @@
         <v>5</v>
       </c>
       <c r="O14" s="37" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="P14" s="30"/>
       <c r="Q14" s="30"/>
@@ -16168,7 +16087,7 @@
         <v>5</v>
       </c>
       <c r="V14" s="50" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="W14" s="30"/>
       <c r="X14" s="30"/>
@@ -16180,7 +16099,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
@@ -16190,7 +16109,7 @@
         <v>6</v>
       </c>
       <c r="H15" s="39" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="I15" s="30"/>
       <c r="J15" s="30"/>
@@ -16201,7 +16120,7 @@
         <v>6</v>
       </c>
       <c r="O15" s="39" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="P15" s="30"/>
       <c r="Q15" s="30"/>
@@ -16212,7 +16131,7 @@
         <v>6</v>
       </c>
       <c r="V15" s="39" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="W15" s="30"/>
       <c r="X15" s="30"/>
@@ -16223,30 +16142,30 @@
       <c r="A16" s="30"/>
       <c r="B16" s="30"/>
       <c r="C16" s="30" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E16" s="44" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="N16" s="30"/>
       <c r="O16" s="30"/>
       <c r="P16" s="30" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q16" s="30" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="R16" s="30" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="S16" s="30" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="T16" s="30"/>
     </row>
@@ -16255,7 +16174,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
@@ -16265,7 +16184,7 @@
         <v>1</v>
       </c>
       <c r="O17" s="34" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="P17" s="30"/>
       <c r="Q17" s="30"/>
@@ -16278,7 +16197,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
@@ -16288,7 +16207,7 @@
         <v>2</v>
       </c>
       <c r="O18" s="34" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="P18" s="30"/>
       <c r="Q18" s="30"/>
@@ -16301,7 +16220,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
@@ -16311,7 +16230,7 @@
         <v>3</v>
       </c>
       <c r="O19" s="36" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="P19" s="30"/>
       <c r="Q19" s="30"/>
@@ -16324,7 +16243,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
@@ -16370,7 +16289,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
@@ -16380,7 +16299,7 @@
         <v>6</v>
       </c>
       <c r="O22" s="39" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="P22" s="30"/>
       <c r="Q22" s="30"/>
@@ -16415,21 +16334,21 @@
     <col min="2" max="2" width="9.33333333333333" style="20" customWidth="1"/>
     <col min="3" max="3" width="16" style="20" customWidth="1"/>
     <col min="4" max="4" width="7.33333333333333" style="20" customWidth="1"/>
-    <col min="5" max="5" width="11.4444444444444" style="20" customWidth="1"/>
+    <col min="5" max="5" width="11.4416666666667" style="20" customWidth="1"/>
     <col min="6" max="6" width="13.6666666666667" style="20" customWidth="1"/>
     <col min="7" max="7" width="7.33333333333333" style="20" customWidth="1"/>
     <col min="8" max="8" width="9.33333333333333" style="20" customWidth="1"/>
     <col min="9" max="9" width="7.33333333333333" style="20" customWidth="1"/>
-    <col min="10" max="10" width="7.88888888888889" style="20" customWidth="1"/>
+    <col min="10" max="10" width="7.89166666666667" style="20" customWidth="1"/>
     <col min="11" max="11" width="9.33333333333333" style="20" customWidth="1"/>
-    <col min="12" max="12" width="7.22222222222222" style="20" customWidth="1"/>
+    <col min="12" max="12" width="7.225" style="20" customWidth="1"/>
     <col min="13" max="13" width="9.33333333333333" style="20" customWidth="1"/>
     <col min="14" max="16384" width="13.6666666666667" style="20"/>
   </cols>
   <sheetData>
     <row r="1" ht="34.05" customHeight="1" spans="1:16">
       <c r="A1" s="21" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -16474,7 +16393,7 @@
         <v>7.13</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K2" s="23">
         <v>8.2</v>
@@ -16494,22 +16413,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H3" s="24" t="s">
         <v>30</v>
@@ -16518,10 +16437,10 @@
         <v>22</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K3" s="24" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L3" s="24" t="s">
         <v>9</v>
@@ -16541,31 +16460,31 @@
         <v>170</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="J4" s="24" t="s">
         <v>160</v>
       </c>
       <c r="K4" s="24" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L4" s="24" t="s">
         <v>18</v>
@@ -16580,22 +16499,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E5" s="24" t="s">
         <v>146</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="H5" s="24"/>
       <c r="I5" s="24" t="s">
@@ -16603,10 +16522,10 @@
       </c>
       <c r="J5" s="24"/>
       <c r="K5" s="24" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="L5" s="24" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="M5" s="24"/>
       <c r="N5" s="24"/>
@@ -16621,26 +16540,26 @@
         <v>67</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="G6" s="24"/>
       <c r="H6" s="24"/>
       <c r="I6" s="24" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
       <c r="L6" s="24" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="M6" s="24"/>
       <c r="N6" s="24"/>
@@ -16652,16 +16571,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C7" s="24" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>67</v>
@@ -16682,16 +16601,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
@@ -16710,13 +16629,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
@@ -16740,7 +16659,7 @@
       </c>
       <c r="C10" s="24"/>
       <c r="D10" s="24" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
@@ -16760,11 +16679,11 @@
         <v>9</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C11" s="24"/>
       <c r="D11" s="24" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
@@ -16784,11 +16703,11 @@
         <v>10</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="24" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
@@ -16808,11 +16727,11 @@
         <v>11</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="24" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
@@ -17072,23 +16991,23 @@
     <col min="2" max="2" width="15" style="3" customWidth="1"/>
     <col min="3" max="3" width="9" style="3"/>
     <col min="4" max="4" width="6.33333333333333" style="3" customWidth="1"/>
-    <col min="5" max="6" width="21.8888888888889" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.4444444444444" style="3" customWidth="1"/>
+    <col min="5" max="6" width="21.8916666666667" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.4416666666667" style="3" customWidth="1"/>
     <col min="8" max="9" width="9" style="3"/>
     <col min="10" max="10" width="6.33333333333333" style="3" customWidth="1"/>
-    <col min="11" max="11" width="11.2222222222222" style="3" customWidth="1"/>
+    <col min="11" max="11" width="11.225" style="3" customWidth="1"/>
     <col min="12" max="12" width="9" style="3"/>
     <col min="13" max="13" width="6.33333333333333" style="3" customWidth="1"/>
-    <col min="14" max="15" width="21.8888888888889" style="3" customWidth="1"/>
-    <col min="16" max="16" width="16.4444444444444" style="3" customWidth="1"/>
-    <col min="17" max="17" width="9.22222222222222" style="3" customWidth="1"/>
+    <col min="14" max="15" width="21.8916666666667" style="3" customWidth="1"/>
+    <col min="16" max="16" width="16.4416666666667" style="3" customWidth="1"/>
+    <col min="17" max="17" width="9.225" style="3" customWidth="1"/>
     <col min="18" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="34.95" customHeight="1" spans="1:21">
       <c r="A1" s="4"/>
       <c r="B1" s="18" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
@@ -17098,7 +17017,7 @@
       <c r="H1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -17113,56 +17032,56 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="21" customHeight="1" spans="1:21">
       <c r="A2" s="8" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>332</v>
-      </c>
       <c r="O2" s="8" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="R2" s="8"/>
       <c r="S2" s="8" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="T2" s="8"/>
       <c r="U2" s="8"/>
@@ -17192,7 +17111,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="L3" s="9">
         <v>13</v>
@@ -17244,7 +17163,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="L4" s="9">
         <v>6</v>
@@ -17276,7 +17195,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C5" s="9">
         <v>2</v>
@@ -17296,7 +17215,7 @@
         <v>3</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="L5" s="9">
         <v>0</v>
@@ -17350,7 +17269,7 @@
         <v>4</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="L6" s="9">
         <v>4</v>
@@ -17402,7 +17321,7 @@
         <v>5</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="L7" s="9">
         <v>1</v>
@@ -17454,7 +17373,7 @@
         <v>6</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="L8" s="9">
         <v>2</v>
@@ -17486,7 +17405,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C9" s="9">
         <v>2</v>
@@ -17506,7 +17425,7 @@
         <v>7</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="L9" s="9">
         <v>0</v>
@@ -17524,7 +17443,7 @@
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
       <c r="S9" s="9" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="T9" s="9">
         <v>6</v>
@@ -17538,7 +17457,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C10" s="9">
         <v>1</v>
@@ -17558,7 +17477,7 @@
         <v>8</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="L10" s="9">
         <v>1</v>
@@ -17584,7 +17503,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C11" s="9">
         <v>0</v>
@@ -17604,7 +17523,7 @@
         <v>9</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="L11" s="9">
         <v>1</v>
@@ -17630,7 +17549,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C12" s="9">
         <v>2</v>
@@ -17650,7 +17569,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="L12" s="9">
         <v>1</v>
@@ -17676,7 +17595,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C13" s="9">
         <v>0</v>
@@ -17696,7 +17615,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="L13" s="9">
         <v>0</v>
@@ -17742,7 +17661,7 @@
         <v>12</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="L14" s="9">
         <v>0</v>
@@ -17770,7 +17689,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C15" s="9">
         <v>1</v>
@@ -17790,7 +17709,7 @@
         <v>13</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="L15" s="9">
         <v>0</v>
@@ -17838,7 +17757,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="L16" s="9">
         <v>0</v>
@@ -17886,7 +17805,7 @@
         <v>15</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="L17" s="9">
         <v>0</v>
@@ -17914,7 +17833,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C18" s="9">
         <v>1</v>
@@ -17934,7 +17853,7 @@
         <v>16</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="L18" s="9">
         <v>0</v>
@@ -17960,7 +17879,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C19" s="9">
         <v>2</v>
@@ -17982,7 +17901,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C20" s="9">
         <v>2</v>
@@ -18092,7 +18011,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C25" s="9">
         <v>1</v>
@@ -18202,7 +18121,7 @@
         <v>32</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C30" s="9">
         <v>0</v>
@@ -18224,7 +18143,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C31" s="9">
         <v>1</v>
@@ -18246,7 +18165,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C32" s="9">
         <v>0</v>
@@ -18290,7 +18209,7 @@
         <v>29</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C34" s="9">
         <v>0</v>
@@ -18312,7 +18231,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C35" s="9">
         <v>0</v>
@@ -18378,7 +18297,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C38" s="9">
         <v>0</v>
@@ -18400,7 +18319,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C39" s="9">
         <v>0</v>
@@ -18446,7 +18365,7 @@
         <v>37</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C41" s="9">
         <v>0</v>
@@ -18468,7 +18387,7 @@
         <v>48</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C42" s="9">
         <v>0</v>
@@ -18514,7 +18433,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C44" s="9">
         <v>0</v>
@@ -18538,7 +18457,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C45" s="9">
         <v>0</v>
@@ -18560,7 +18479,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C46" s="9">
         <v>0</v>
@@ -18582,7 +18501,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C47" s="9">
         <v>0</v>
@@ -18606,7 +18525,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C48" s="9">
         <v>0</v>
@@ -18700,7 +18619,7 @@
         <v>53</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C52" s="9">
         <v>0</v>
@@ -18722,7 +18641,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C53" s="9">
         <v>0</v>
@@ -18770,7 +18689,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C55" s="9">
         <v>0</v>
@@ -18889,23 +18808,23 @@
     <col min="2" max="2" width="15" style="3" customWidth="1"/>
     <col min="3" max="3" width="9" style="3"/>
     <col min="4" max="4" width="6.33333333333333" style="3" customWidth="1"/>
-    <col min="5" max="6" width="21.8888888888889" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.4444444444444" style="3" customWidth="1"/>
+    <col min="5" max="6" width="21.8916666666667" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.4416666666667" style="3" customWidth="1"/>
     <col min="8" max="9" width="9" style="3"/>
     <col min="10" max="10" width="6.33333333333333" style="3" customWidth="1"/>
     <col min="11" max="11" width="15" style="3" customWidth="1"/>
     <col min="12" max="12" width="9" style="3"/>
     <col min="13" max="13" width="6.33333333333333" style="3" customWidth="1"/>
-    <col min="14" max="15" width="21.8888888888889" style="3" customWidth="1"/>
-    <col min="16" max="16" width="16.4444444444444" style="3" customWidth="1"/>
-    <col min="17" max="17" width="9.22222222222222" style="3" customWidth="1"/>
+    <col min="14" max="15" width="21.8916666666667" style="3" customWidth="1"/>
+    <col min="16" max="16" width="16.4416666666667" style="3" customWidth="1"/>
+    <col min="17" max="17" width="9.225" style="3" customWidth="1"/>
     <col min="18" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="34.95" customHeight="1" spans="1:21">
       <c r="A1" s="4"/>
       <c r="B1" s="18" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
@@ -18915,7 +18834,7 @@
       <c r="H1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -18930,56 +18849,56 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="21" customHeight="1" spans="1:21">
       <c r="A2" s="8" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>332</v>
-      </c>
       <c r="O2" s="8" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="R2" s="8"/>
       <c r="S2" s="8" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="T2" s="8"/>
       <c r="U2" s="8"/>
@@ -19009,7 +18928,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="L3" s="9">
         <v>3</v>
@@ -19061,7 +18980,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="L4" s="9">
         <v>2</v>
@@ -19113,7 +19032,7 @@
         <v>3</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="L5" s="9">
         <v>0</v>
@@ -19145,7 +19064,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C6" s="9">
         <v>6</v>
@@ -19165,7 +19084,7 @@
         <v>4</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="L6" s="9">
         <v>0</v>
@@ -19217,7 +19136,7 @@
         <v>5</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="L7" s="9">
         <v>0</v>
@@ -19249,7 +19168,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C8" s="9">
         <v>2</v>
@@ -19269,7 +19188,7 @@
         <v>6</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="L8" s="9">
         <v>0</v>
@@ -19301,7 +19220,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C9" s="9">
         <v>4</v>
@@ -19321,7 +19240,7 @@
         <v>7</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="L9" s="9">
         <v>1</v>
@@ -19339,7 +19258,7 @@
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
       <c r="S9" s="9" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="T9" s="9">
         <v>6</v>
@@ -19373,7 +19292,7 @@
         <v>8</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="L10" s="9">
         <v>0</v>
@@ -19399,7 +19318,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C11" s="9">
         <v>4</v>
@@ -19419,7 +19338,7 @@
         <v>9</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="L11" s="9">
         <v>2</v>
@@ -19465,7 +19384,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="L12" s="9">
         <v>0</v>
@@ -19511,7 +19430,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="L13" s="9">
         <v>0</v>
@@ -19537,7 +19456,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C14" s="9">
         <v>2</v>
@@ -19557,7 +19476,7 @@
         <v>12</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="L14" s="9">
         <v>0</v>
@@ -19583,7 +19502,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C15" s="9">
         <v>2</v>
@@ -19603,7 +19522,7 @@
         <v>13</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="L15" s="9">
         <v>0</v>
@@ -19649,7 +19568,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="L16" s="9">
         <v>0</v>
@@ -19675,7 +19594,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C17" s="9">
         <v>0</v>
@@ -19695,7 +19614,7 @@
         <v>15</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="L17" s="9">
         <v>0</v>
@@ -19721,7 +19640,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C18" s="9">
         <v>1</v>
@@ -19741,7 +19660,7 @@
         <v>16</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="L18" s="9">
         <v>0</v>
@@ -19789,7 +19708,7 @@
         <v>17</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="L19" s="9">
         <v>0</v>
@@ -19835,7 +19754,7 @@
         <v>18</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="L20" s="9">
         <v>0</v>
@@ -19881,7 +19800,7 @@
         <v>19</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="L21" s="9">
         <v>0</v>
@@ -19907,7 +19826,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C22" s="9">
         <v>0</v>
@@ -19929,7 +19848,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C23" s="9">
         <v>0</v>
@@ -20017,7 +19936,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C27" s="9">
         <v>0</v>
@@ -20039,7 +19958,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C28" s="9">
         <v>0</v>
@@ -20083,7 +20002,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C30" s="9">
         <v>0</v>
@@ -20105,7 +20024,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C31" s="9">
         <v>1</v>
@@ -20127,7 +20046,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C32" s="9">
         <v>0</v>
@@ -20149,7 +20068,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C33" s="9">
         <v>1</v>
@@ -20261,7 +20180,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C38" s="9">
         <v>0</v>
@@ -20283,7 +20202,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C39" s="9">
         <v>0</v>
@@ -20329,7 +20248,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C41" s="9">
         <v>0</v>
@@ -20375,7 +20294,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C43" s="9">
         <v>0</v>
@@ -20397,7 +20316,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C44" s="9">
         <v>0</v>
@@ -20469,7 +20388,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C47" s="9">
         <v>0</v>
@@ -20493,7 +20412,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C48" s="9">
         <v>0</v>
@@ -20539,7 +20458,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C50" s="9">
         <v>0</v>
@@ -20563,7 +20482,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C51" s="9">
         <v>0</v>
@@ -20607,7 +20526,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C53" s="9">
         <v>0</v>
@@ -20721,23 +20640,23 @@
     <col min="2" max="2" width="15" style="3" customWidth="1"/>
     <col min="3" max="3" width="9" style="3"/>
     <col min="4" max="4" width="6.33333333333333" style="3" customWidth="1"/>
-    <col min="5" max="6" width="21.8888888888889" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.4444444444444" style="3" customWidth="1"/>
+    <col min="5" max="6" width="21.8916666666667" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.4416666666667" style="3" customWidth="1"/>
     <col min="8" max="9" width="9" style="3"/>
     <col min="10" max="10" width="6.33333333333333" style="3" customWidth="1"/>
     <col min="11" max="11" width="15" style="3" customWidth="1"/>
     <col min="12" max="12" width="9" style="3"/>
     <col min="13" max="13" width="6.33333333333333" style="3" customWidth="1"/>
-    <col min="14" max="15" width="21.8888888888889" style="3" customWidth="1"/>
-    <col min="16" max="16" width="16.4444444444444" style="3" customWidth="1"/>
-    <col min="17" max="17" width="9.22222222222222" style="3" customWidth="1"/>
+    <col min="14" max="15" width="21.8916666666667" style="3" customWidth="1"/>
+    <col min="16" max="16" width="16.4416666666667" style="3" customWidth="1"/>
+    <col min="17" max="17" width="9.225" style="3" customWidth="1"/>
     <col min="18" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="34.95" customHeight="1" spans="1:21">
       <c r="A1" s="4"/>
       <c r="B1" s="18" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
@@ -20747,7 +20666,7 @@
       <c r="H1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -20762,56 +20681,56 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="21" customHeight="1" spans="1:21">
       <c r="A2" s="8" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>332</v>
-      </c>
       <c r="O2" s="8" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="R2" s="8"/>
       <c r="S2" s="8" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="T2" s="8"/>
       <c r="U2" s="8"/>
@@ -20841,7 +20760,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="L3" s="9">
         <v>8</v>
@@ -20889,7 +20808,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="L4" s="9">
         <v>9</v>
@@ -20937,7 +20856,7 @@
         <v>3</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="L5" s="9">
         <v>1</v>
@@ -20965,7 +20884,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C6" s="9">
         <v>5</v>
@@ -20985,7 +20904,7 @@
         <v>4</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="L6" s="9">
         <v>2</v>
@@ -21033,7 +20952,7 @@
         <v>5</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="L7" s="9">
         <v>2</v>
@@ -21061,7 +20980,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C8" s="9">
         <v>0</v>
@@ -21081,7 +21000,7 @@
         <v>6</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="L8" s="9">
         <v>0</v>
@@ -21109,7 +21028,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C9" s="9">
         <v>1</v>
@@ -21129,7 +21048,7 @@
         <v>7</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="L9" s="9">
         <v>0</v>
@@ -21147,7 +21066,7 @@
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
       <c r="S9" s="9" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="T9" s="9"/>
       <c r="U9" s="9"/>
@@ -21177,7 +21096,7 @@
         <v>8</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="L10" s="9">
         <v>0</v>
@@ -21203,7 +21122,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C11" s="9">
         <v>2</v>
@@ -21223,7 +21142,7 @@
         <v>9</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="L11" s="9">
         <v>0</v>
@@ -21269,7 +21188,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="L12" s="9">
         <v>0</v>
@@ -21317,7 +21236,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="L13" s="9">
         <v>0</v>
@@ -21343,7 +21262,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C14" s="9">
         <v>0</v>
@@ -21363,7 +21282,7 @@
         <v>12</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="L14" s="9">
         <v>0</v>
@@ -21391,7 +21310,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C15" s="9">
         <v>1</v>
@@ -21411,7 +21330,7 @@
         <v>13</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="L15" s="9">
         <v>0</v>
@@ -21439,7 +21358,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C16" s="9">
         <v>3</v>
@@ -21459,7 +21378,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="L16" s="9">
         <v>0</v>
@@ -21505,7 +21424,7 @@
         <v>15</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="L17" s="9">
         <v>0</v>
@@ -21531,7 +21450,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C18" s="9">
         <v>0</v>
@@ -21551,7 +21470,7 @@
         <v>16</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="L18" s="9">
         <v>0</v>
@@ -21579,7 +21498,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C19" s="9">
         <v>0</v>
@@ -21623,7 +21542,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C21" s="9">
         <v>2</v>
@@ -21684,7 +21603,7 @@
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="K23" s="3" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:8">
@@ -21714,7 +21633,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C25" s="9">
         <v>0</v>
@@ -21804,7 +21723,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C29" s="9">
         <v>1</v>
@@ -21826,7 +21745,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C30" s="9">
         <v>0</v>
@@ -21936,7 +21855,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C35" s="9">
         <v>0</v>
@@ -21980,7 +21899,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C37" s="9">
         <v>0</v>
@@ -22002,7 +21921,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C38" s="9">
         <v>0</v>
@@ -22024,7 +21943,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C39" s="9">
         <v>0</v>
@@ -22180,7 +22099,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C46" s="9">
         <v>0</v>
@@ -22204,7 +22123,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C47" s="9">
         <v>0</v>
@@ -22226,7 +22145,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C48" s="9">
         <v>0</v>
@@ -22272,7 +22191,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C50" s="9">
         <v>0</v>
@@ -22318,7 +22237,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C52" s="9">
         <v>0</v>
@@ -22364,7 +22283,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C54" s="9">
         <v>0</v>
@@ -22388,7 +22307,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C55" s="9">
         <v>0</v>
@@ -22412,7 +22331,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C56" s="9">
         <v>0</v>
@@ -22434,7 +22353,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C57" s="9">
         <v>0</v>
@@ -22480,23 +22399,23 @@
     <col min="2" max="2" width="15" style="3" customWidth="1"/>
     <col min="3" max="3" width="9" style="3"/>
     <col min="4" max="4" width="6.33333333333333" style="3" customWidth="1"/>
-    <col min="5" max="6" width="21.8888888888889" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.4444444444444" style="3" customWidth="1"/>
+    <col min="5" max="6" width="21.8916666666667" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.4416666666667" style="3" customWidth="1"/>
     <col min="8" max="9" width="9" style="3"/>
     <col min="10" max="10" width="6.33333333333333" style="3" customWidth="1"/>
     <col min="11" max="11" width="15" style="3" customWidth="1"/>
     <col min="12" max="12" width="9" style="3"/>
     <col min="13" max="13" width="6.33333333333333" style="3" customWidth="1"/>
-    <col min="14" max="15" width="21.8888888888889" style="3" customWidth="1"/>
-    <col min="16" max="16" width="16.4444444444444" style="3" customWidth="1"/>
-    <col min="17" max="17" width="9.22222222222222" style="3" customWidth="1"/>
+    <col min="14" max="15" width="21.8916666666667" style="3" customWidth="1"/>
+    <col min="16" max="16" width="16.4416666666667" style="3" customWidth="1"/>
+    <col min="17" max="17" width="9.225" style="3" customWidth="1"/>
     <col min="18" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="34.95" customHeight="1" spans="1:21">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -22506,7 +22425,7 @@
       <c r="H1" s="7"/>
       <c r="J1" s="4"/>
       <c r="K1" s="12" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="L1" s="13"/>
       <c r="M1" s="13"/>
@@ -22521,56 +22440,56 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="21" customHeight="1" spans="1:21">
       <c r="A2" s="8" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>332</v>
-      </c>
       <c r="O2" s="8" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="R2" s="8"/>
       <c r="S2" s="8" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="T2" s="8"/>
       <c r="U2" s="8"/>
@@ -22580,7 +22499,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C3" s="9">
         <v>12</v>
@@ -22600,7 +22519,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="L3" s="9">
         <v>7</v>
@@ -22632,7 +22551,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C4" s="9">
         <v>9</v>
@@ -22652,7 +22571,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="L4" s="9">
         <v>1</v>
@@ -22704,7 +22623,7 @@
         <v>3</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="L5" s="9">
         <v>1</v>
@@ -22736,7 +22655,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C6" s="9">
         <v>6</v>
@@ -22756,7 +22675,7 @@
         <v>4</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="L6" s="9">
         <v>1</v>
@@ -22788,7 +22707,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C7" s="9">
         <v>2</v>
@@ -22808,7 +22727,7 @@
         <v>5</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="L7" s="9">
         <v>3</v>
@@ -22860,7 +22779,7 @@
         <v>6</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="L8" s="9">
         <v>1</v>
@@ -22892,7 +22811,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C9" s="9">
         <v>0</v>
@@ -22912,7 +22831,7 @@
         <v>7</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="L9" s="9">
         <v>1</v>
@@ -22930,7 +22849,7 @@
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
       <c r="S9" s="9" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="T9" s="9">
         <v>7</v>
@@ -22964,7 +22883,7 @@
         <v>8</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="L10" s="9">
         <v>2</v>
@@ -23010,7 +22929,7 @@
         <v>9</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="L11" s="9">
         <v>0</v>
@@ -23036,7 +22955,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C12" s="9">
         <v>0</v>
@@ -23056,7 +22975,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="L12" s="9">
         <v>2</v>
@@ -23082,7 +23001,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C13" s="9">
         <v>0</v>
@@ -23102,7 +23021,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="L13" s="9">
         <v>1</v>
@@ -23128,7 +23047,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C14" s="9">
         <v>1</v>
@@ -23148,7 +23067,7 @@
         <v>12</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="L14" s="9">
         <v>2</v>
@@ -23174,7 +23093,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C15" s="9">
         <v>0</v>
@@ -23194,7 +23113,7 @@
         <v>13</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="L15" s="9">
         <v>2</v>
@@ -23220,7 +23139,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C16" s="9">
         <v>0</v>
@@ -23240,7 +23159,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="L16" s="9">
         <v>0</v>
@@ -23286,7 +23205,7 @@
         <v>15</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="L17" s="9">
         <v>1</v>
@@ -23332,7 +23251,7 @@
         <v>16</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="L18" s="9">
         <v>0</v>
@@ -23358,7 +23277,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C19" s="9">
         <v>0</v>
@@ -23380,7 +23299,7 @@
         <v>17</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="L19" s="9">
         <v>4</v>
@@ -23406,7 +23325,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C20" s="9">
         <v>0</v>
@@ -23426,7 +23345,7 @@
         <v>18</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="L20" s="9">
         <v>2</v>
@@ -23472,7 +23391,7 @@
         <v>19</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="L21" s="9">
         <v>0</v>
@@ -23518,7 +23437,7 @@
         <v>20</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="L22" s="9">
         <v>2</v>
@@ -23544,7 +23463,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C23" s="9">
         <v>0</v>
@@ -23564,7 +23483,7 @@
         <v>21</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="L23" s="9">
         <v>0</v>
@@ -23610,7 +23529,7 @@
         <v>22</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="L24" s="9">
         <v>0</v>
@@ -23656,7 +23575,7 @@
         <v>23</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="L25" s="9">
         <v>1</v>
@@ -23702,7 +23621,7 @@
         <v>24</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="L26" s="9">
         <v>0</v>
@@ -23748,7 +23667,7 @@
         <v>25</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="L27" s="9">
         <v>0</v>
@@ -23794,7 +23713,7 @@
         <v>26</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="L28" s="9">
         <v>0</v>
@@ -23820,7 +23739,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C29" s="9">
         <v>0</v>
@@ -23840,7 +23759,7 @@
         <v>27</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="L29" s="9">
         <v>1</v>
@@ -23888,7 +23807,7 @@
         <v>28</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="L30" s="9">
         <v>0</v>
@@ -23914,7 +23833,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C31" s="9">
         <v>0</v>
@@ -23934,7 +23853,7 @@
         <v>29</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="L31" s="9">
         <v>1</v>
@@ -23960,7 +23879,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C32" s="9">
         <v>0</v>
@@ -23980,7 +23899,7 @@
         <v>30</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="L32" s="9">
         <v>0</v>
@@ -24030,7 +23949,7 @@
         <v>31</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="L33" s="9">
         <v>0</v>
@@ -24078,7 +23997,7 @@
         <v>32</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="L34" s="9">
         <v>0</v>
@@ -24106,7 +24025,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C35" s="9">
         <v>0</v>
@@ -24126,7 +24045,7 @@
         <v>33</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="L35" s="9">
         <v>0</v>
@@ -24176,7 +24095,7 @@
         <v>34</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="L36" s="9">
         <v>0</v>
@@ -24204,7 +24123,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="C37" s="9">
         <v>0</v>
@@ -24224,7 +24143,7 @@
         <v>35</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="L37" s="9">
         <v>0</v>
@@ -24272,7 +24191,7 @@
         <v>36</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="L38" s="9">
         <v>0</v>
@@ -24300,7 +24219,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C39" s="9">
         <v>0</v>
@@ -24320,7 +24239,7 @@
         <v>37</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="L39" s="9">
         <v>0</v>
@@ -24370,7 +24289,7 @@
         <v>38</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="L40" s="9">
         <v>0</v>
@@ -24398,7 +24317,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C41" s="9">
         <v>0</v>
@@ -24420,7 +24339,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C42" s="9">
         <v>0</v>
@@ -24442,7 +24361,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C43" s="9">
         <v>0</v>
@@ -24464,7 +24383,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C44" s="9">
         <v>0</v>
@@ -24488,7 +24407,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C45" s="9">
         <v>0</v>
@@ -24578,7 +24497,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C49" s="9">
         <v>0</v>
@@ -24600,7 +24519,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C50" s="9">
         <v>0</v>
@@ -24670,7 +24589,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C53" s="9">
         <v>0</v>
@@ -24735,7 +24654,7 @@
     </row>
     <row r="57" customHeight="1" spans="1:8">
       <c r="A57" s="17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
@@ -24747,7 +24666,7 @@
     </row>
     <row r="58" customHeight="1" spans="1:8">
       <c r="A58" s="17" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
